--- a/ressources/tableaux-de-travail/GT_Dessertes_Tab_troncons.xlsx
+++ b/ressources/tableaux-de-travail/GT_Dessertes_Tab_troncons.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28724"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ignf.sharepoint.com/sites/Naviforest/Documents partages/General/Tranche 3/4. GT MASA Loi Incendies/#1 réunion - 06.02.2025/CR/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ignf.sharepoint.com/sites/Naviforest/Documents partages/General/Tranche 3/4. GT MASA Loi Incendies/Tableaux de travail/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="256" documentId="14_{4192AC41-298A-47D6-B1A4-D7E8DF33344C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{338BE2A7-88B0-4C37-B5B7-9CAD1B693D95}"/>
+  <xr:revisionPtr revIDLastSave="498" documentId="14_{4192AC41-298A-47D6-B1A4-D7E8DF33344C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D053012A-A447-4851-B7C6-4F2619A2B47D}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CB727CCD-405B-42AD-A0E5-02FA24AA591E}"/>
+    <workbookView xWindow="-28920" yWindow="-45" windowWidth="29040" windowHeight="15840" xr2:uid="{CB727CCD-405B-42AD-A0E5-02FA24AA591E}"/>
   </bookViews>
   <sheets>
     <sheet name="CR - GT Tronçon de route" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="799" uniqueCount="459">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="853" uniqueCount="511">
   <si>
     <t>Nom compréhensible de l'élément</t>
   </si>
@@ -117,6 +117,9 @@
     <t>Réponse/commentaire fait pendant le GT du 06/02/2025</t>
   </si>
   <si>
+    <t>Réunion IGN 07/04/2025</t>
+  </si>
+  <si>
     <t xml:space="preserve">Commentaires </t>
   </si>
   <si>
@@ -127,6 +130,15 @@
   </si>
   <si>
     <t>config saisie directe</t>
+  </si>
+  <si>
+    <t>Réunion IGN 28/04/2025</t>
+  </si>
+  <si>
+    <t>Récap pour diffusion 28/04/2025</t>
+  </si>
+  <si>
+    <t>Réunion plénière 04/06/2025</t>
   </si>
   <si>
     <t>attribut socle BDTOPO</t>
@@ -233,7 +245,12 @@
     <t>Texte</t>
   </si>
   <si>
-    <t>BD-Topo</t>
+    <t>BD-Topo
+Les insee_commune_gauche et droite sont remplis :
+- à partir du processus d'appariement des adresses BAN (-&gt; correction en cours pour les codes insee les plus loins des communes correspondantes, &gt; 1km tous corrigés actuellement)
+- à partir de la géométrie de la commune si le tronçon est entièrement inclus.
+- tous les objets restants sont sur au moins 2 communes (remplis 1 par 1 mais la plupart du temps vides).
+taux d'attributs vides (sur plus de 2 communes) : 368000 sur 20,144 M (soit 1,8%)</t>
   </si>
   <si>
     <t>Numéro INSEE de la commune à gauche ou à droite du tronçon par rapport au sens de numérisation.</t>
@@ -243,9 +260,6 @@
   </si>
   <si>
     <t>Non obligatoire</t>
-  </si>
-  <si>
-    <t>à valider</t>
   </si>
   <si>
     <t>Besoin autre que le code insee de la BDTOPO ? Besoin de distinguer gauche et droite (sinon, on prend toujours le 'droite') ?_x000B_saisie IGN : calcul actuel automatique dans la BDUni : _x000B_1. si id_ban_g/d existant alors on récupère le code_insee de la voie BAN_x000B_2. sinon, si pas d'id_voie_ban_g/d, on récupère le code_insee de la commune qui l'intersecte entièrement._x000B_-&gt; si à cheval sur au moins 2 communes, pas rempli et c'est le seul cas où on peut prévoir une saisie.</t>
@@ -254,6 +268,13 @@
     <t>ok pour récupérer le INSEECOM_D (troncon de droite).
 Il faut que cet élément soit forcément rempli (car le code département serait calculé d'après lui)
 -&gt; voir avec IGN sur cette posibilité</t>
+  </si>
+  <si>
+    <t>Les insee_commune_gauche et droite sont remplis :
+- à partir du processus d'appariement des adresses BAN (-&gt; correction en cours pour les codes insee les plus loins des communes correspondantes, &gt; 1km tous corrigés actuellement)
+- à partir de la géométrie de la commune si le tronçon est entièrement inclus.
+- tous les objets restants sont sur au moins 2 communes (remplis 1 par 1 mais la plupart du temps vides).
+taux d'attributs vides (sur plus de 2 communes) : 368000 sur 20,144 M (soit 1,8%)</t>
   </si>
   <si>
     <t>Demande d'ajout du numéro INSEE de la commune. Le GT souligne que cet ajout implique une sur-segmentation de certains tronçons de la BD-Topo.
@@ -266,6 +287,18 @@
     <t>Liste des codes INSEE</t>
   </si>
   <si>
+    <t>- Globalement, la plupart des troncons ont un code INSEE commune. (98,2%). A voir si ce qui est vraiment intéressant, c'est d'avoir le code commune administrative ou d'avoir le code département. Car il est possible au sein de la BD TOPO de récupérer le code de département (troncon contenu entièrement dans le département)
+&gt;&gt; le GT doit spécifier plus précisément l'origine de son besoin et l'utilisation potentielle pour cet élément</t>
+  </si>
+  <si>
+    <t>Réponse IGN : 
+Globalement, la plupart des troncons ont un code INSEE commune. (98,2%) A voir si ce qui est vraiment intéressant, c'est d'avoir le code commune administrative ou d'avoir le code département administratif. Car il est possible au sein de la BD TOPO de récupérer le code de département (troncon contenu entièrement dans le département).
+&gt;&gt; le GT doit spécifier plus précisément l'origine de son besoin et l'utilisation potentielle pour cet élément</t>
+  </si>
+  <si>
+    <t>on conserve tel que fait dans la BD TOPO (mettre en optionnel car ce n'est pafois pas indiqué dans le BD TOPO)</t>
+  </si>
+  <si>
     <t>Attribut métier forestier (à confirmer)</t>
   </si>
   <si>
@@ -279,6 +312,9 @@
   </si>
   <si>
     <t>Numéro du département où se situe le tronçon</t>
+  </si>
+  <si>
+    <t>BD-Topo</t>
   </si>
   <si>
     <t>peut être calculé à partir du code insee commune</t>
@@ -314,15 +350,35 @@
   </si>
   <si>
     <t>Pb avec la BDTOPO : le code INSEE n'est pas tjs renseigné. L'absence de numéro de département est contraignant. Question en cascade  avec le code INSEE de la commune et le gestionnaire :
-- les besoins sont différents entre la DFCI et le TB
+- les besoins sont différents entre la DFCI et le TB?
 - ya t'il un besoin purement géo ou alors y a-t-il un besoin d'identitifer le département gestionnaire?
 - changer le nom DEPT en DEPT GESTIONNAIRE?</t>
   </si>
   <si>
+    <t>- besoin de base : pour les TB, il fallait avoir une informations du numéro de département pour définir les décrêts liés
+- &gt;&gt; le besoin côté GT doit être défini pour étudier la proposition côté IGN
+- comment ca se passe pour les routes où il y a plusieurs départements &gt;&gt; côté BDTOPO, on ne peut pas systématiquement couper la route et avoir plusieurs départements pour une même route
+- Dans la BDTOPO, il y a une classe ROUTE NUMEROTEE OU NOMMEE (agregation de troncons) et à l'intérieur on retouve un attribut avec le nom du gestionnaire (mais le type de gestionnaire ou ses actions ne sont pas définies)</t>
+  </si>
+  <si>
     <t>Liste des codes de département</t>
   </si>
   <si>
     <t>revoir le besoin : à stocker dans chaque objet ? À calculer à la volée à partir de insee_com ? Utiliser DEPT_TE ?</t>
+  </si>
+  <si>
+    <t>- ya t'il besoin d'avoir le Code INSEE de la commune + le code du département (admin) + le code/nom du departement gestionnaire?</t>
+  </si>
+  <si>
+    <t>Réponse IGN : 
+- besoin de base : pour les TB, il fallait avoir une informations du numéro de département pour définir les décrêts liés. Pour la DFCI, besoin de connaître le département gestionnaire de la DFCI.
+- pour les routes qui traversent plusieurs départements  &gt;&gt; côté BDTOPO, on ne peut pas systématiquement couper la route et on ne peut pas avoir plusieurs départements pour une même route. Le problème se pose déjà côté NexSIS mais n'est pas résolu. 
+- Dans la BDTOPO, il y a une classe ROUTE NUMEROTEE OU NOMMEE (agregation de troncons) et à l'intérieur on retouve un attribut avec le nom du gestionnaire (mais le type de gestionnaire ou ses actions ne sont pas définies). Est-ce que cela conviendrait mieux?
+- Ya t'il besoin d'avoir le Code INSEE de la commune + le code du département (admin) + le code/nom du departement gestionnaire? Quel élement est obligatoire?
+&gt;&gt; De quelles informations ont a vraiment besoin?</t>
+  </si>
+  <si>
+    <t>supprimer du standard</t>
   </si>
   <si>
     <t>Gestionnaire</t>
@@ -360,8 +416,9 @@
   </si>
   <si>
     <t xml:space="preserve">Besoin de redéfinir ce que l'on veut dans cet élément : type de gestionnaire, cad celui qui entretien la route?
-- Gestionnaire administratif (+ besoin bois) : ok pour tel qu'indiqué dans BDTOPO (nom du gestionnaire) mais on le retrouve pas sur les petits niveaux
-- Gestionnaire opérationnel (besoin DFCI) : besoin d'un champ en + qui indique celui qui fait l'entretien. Le mettre en facultatif? mettre un sans valeur+inconnu et obligatoire?
+On aurait 2 champs :
+- Gestionnaire administratif (besoin + bois) : ok pour tel qu'indiqué dans BDTOPO (nom du gestionnaire) mais on le retrouve pas forcément sur les petits niveaux
+- Gestionnaire opérationnel (besoin + DFCI) : besoin d'un champ en + qui indique celui qui fait l'entretien. Le mettre en facultatif? mettre un sans valeur|Inconnu|Nom et obligatoire?
 -&gt; le GT a besoin de définir un exemple
 </t>
   </si>
@@ -428,6 +485,13 @@
     </r>
   </si>
   <si>
+    <t>- Le besoin est flou et difficile à définir pour l'ensemble des acteurs. 
+- On récupère la forme présente actuellement dans la BDTOPO 
+- Par contre il faudra agrementer la liste des gestionnaires actuels (les participants doivent envoyer leur liste)
+- Ajouter un statut « route forestière », forcément géré par l’ONF, dans les types de routes. Types de route = autoroute, nationale, départementale, intercommunale, etc. Présent dans la BD TOPO, à l’exception de la route forestière -&gt; Modifier la BD TOPO.
+- Attribut optionnel dans le standard</t>
+  </si>
+  <si>
     <t>Attribut métier en lien avec l'usage forestier du tronçon</t>
   </si>
   <si>
@@ -452,13 +516,17 @@
     <t>Oui / Non (par defaut : Non)</t>
   </si>
   <si>
-    <t>non discuté</t>
+    <t>élément à supprimer du standard : information portée par l'élément Piste DFCI (dont le nom va évoluer)</t>
   </si>
   <si>
     <t>Oui / Non (par défaut : Non)</t>
   </si>
   <si>
     <t>attribut "desserte_forestiere" à ajouter</t>
+  </si>
+  <si>
+    <t>- à supprimer du standard
+- création de 2 attributs qui englobent en partie celui là : Réseau DFCI et Réseau transport de bois</t>
   </si>
   <si>
     <t>Numéro de la route où se situe le tronçon</t>
@@ -514,6 +582,10 @@
     </r>
   </si>
   <si>
+    <t>Retour GT Routes :
+Le rapport ne va pas donner lieu de suite à un standard. C'est un ensemble de recommandations abstraites. Les travaux sont pris en compte au sein de la BD TOPO donc pas besoin de bilatérale avec ce GT (voir rapport phase 1 https://cnig.gouv.fr/gt-routes-voies-a26007.html#H_Reunions)</t>
+  </si>
+  <si>
     <t>Sens de circulation</t>
   </si>
   <si>
@@ -679,7 +751,7 @@
     <t>Problème de définition :
 - la largeur de chaussée est différente de la largeur d'accotement. La BDTOPO a l'air d'être définie d'accotement à accotement 
 -&gt; Il faut une définition commune pour l'accotement, la chaussée et la bande roulement
--&gt; Il faut voir comment ces concepts sont définis dan sla BDTOPO
+-&gt; Il faut voir comment ces concepts sont définis dans la BDTOPO
 - L'info remontée dans la BDTOPO est-elle numérique ou en classes? Préférence pour l'info en décimale si elle existe déja, plutôt qu'en classes
 - Valeur non obligatoire dans la BDTOPO &gt; info nécessaire
 -&gt; Après une définition commune, il y aura peut être besoin de spécifier comment sont collectées ces données
@@ -693,6 +765,12 @@
 pas mêmes classes de largeur en BDTOPO</t>
   </si>
   <si>
+    <t xml:space="preserve">Réponse IGN : 
+- Element en numérique dans la BD TOPO
+- pour la production, il y a plusieurs sources qui se mélangent : mesure sur ortho ou calculs automatiques à partir du nombre de voie/importance.  Ce n'est plus trop l'idée de remplir automatiquement mais plutôt de remplir avec des mesures sur orthos. C'est long mais plus fiable. S'il y a retours DFCI ou SDIS, ces retours sont pris en compte
+</t>
+  </si>
+  <si>
     <t>besoin ?</t>
   </si>
   <si>
@@ -727,6 +805,9 @@
     <t>non</t>
   </si>
   <si>
+    <t>- à retirer du standard (l'attribut peut être calculé dans l'applicatif)</t>
+  </si>
+  <si>
     <t>attribut BDUni métier DSR-TE</t>
   </si>
   <si>
@@ -758,16 +839,23 @@
     <t>https://pomme.ign.fr/SV3D/Documentation-BDUni-v2/?id_theme=72&amp;id_classe=77#attribute_1915</t>
   </si>
   <si>
-    <t>Sans valeur | 1TE | 2TE48 | TE120 | TE72 | TE94</t>
-  </si>
-  <si>
-    <t>valeur dans la BDTOPO : Sans valeur | 1TE | 2TE48 | TE120 | TE72 | TE94</t>
+    <t>nul par défaut | 1TE | 2TE48 | TE120 | TE72 | TE94</t>
+  </si>
+  <si>
+    <t>valeur dans la BDTE (BD spécialisée pour le TE, compatible BD TOPO) : Sans valeur | 1TE | 2TE48 | TE120 | TE72 | TE94</t>
   </si>
   <si>
     <t>déjà présent pour la BDTE mais ne respecte pas le standard Covadis : Sans valeur | 1TE | 2TE48 | TE120 | TE72 | TE94</t>
   </si>
   <si>
     <t>si écriture, demander autorisation à JB Fresse (par les DDT normalement)</t>
+  </si>
+  <si>
+    <t>- valeur renseignée essentiellement pour le réseau autoroute nationale et départementale majeure. Ca ne concerne pas vraiment les dessertes intra-massfi. Faut-il laisser l'élément dans le standard (besoin ITBR à la base)? Le passer en optionnel?</t>
+  </si>
+  <si>
+    <t>- supprimer l'attribut dans le standard
+- ecrire en recommandation sur le standard que les éléments TE sont présent dans la BDTE  et maj par les DDT</t>
   </si>
   <si>
     <t>Catégorie Transports exceptionnels</t>
@@ -798,7 +886,7 @@
     <t>48 | 72</t>
   </si>
   <si>
-    <t>Liste de valeurs différente du standard (validée par la DSR) : 48|72|94|120</t>
+    <t>Liste de valeurs différente du standard (validée par la DSR)(porté par le BD TE, BD spécialisée pour le TE, compatible BD TOPO) : 48|72|94|120</t>
   </si>
   <si>
     <t>calculé uniquement pour la diffusion à partir de l'attribut reseau_te</t>
@@ -812,6 +900,9 @@
     <t>lecture ?</t>
   </si>
   <si>
+    <t>- besoin du GT à confirmer pour cet élément</t>
+  </si>
+  <si>
     <t>3a- questionner besoins sur les restrictions</t>
   </si>
   <si>
@@ -848,6 +939,9 @@
   </si>
   <si>
     <t>25,00 | 16,00</t>
+  </si>
+  <si>
+    <t>à valider</t>
   </si>
   <si>
     <t>valeur spécifique au métier filière bois ? Réglementaire ? Dérogation ?</t>
@@ -860,6 +954,13 @@
 -&gt; voir avec l'IGN</t>
   </si>
   <si>
+    <t>Faut-il vraiment mettre une valeur par défaut ? D'après le texte de loi, ça dépend du type de véhicule et du nombre d'essieux : https://www.legifrance.gouv.fr/codes/section_lc/LEGITEXT000006074228/LEGISCTA000006159578/
+Actuellement, les spécifications indiquent une limite physique avec aucune dérogation possible.
+&gt;&gt; mettre une valeure par défaut n'aurait pas de sens au regard de la loi
+- c'est possible de rajouter un texte dans les specs pour les valeurs nulles 
+&gt;&gt; texte à fournir par le GT</t>
+  </si>
+  <si>
     <t>Ajout de la valeur inconnu dans la mesure où l'information n'est pas simple à obtenir, Forespir et CRIGE PACA ayant fait part des difficultés à recupérer cette information pour leur base de données respective.</t>
   </si>
   <si>
@@ -904,6 +1005,13 @@
 - quelle est la valeur par défaut? 
 - besoin de préciser la valeur par défaut dans les specs de la BDTOPO
 -&gt; voir avec l'IGN</t>
+  </si>
+  <si>
+    <t>Faut-il vraiment mettre une valeur par défaut ? D'après le texte de loi, ça dépend du type de véhicule : https://www.legifrance.gouv.fr/codes/id/LEGISCTA000006177085/
+Actuellement, les spécifications indiquent une limite physique avec aucune dérogation possible.
+&gt;&gt; mettre une valeure par défaut n'aurait pas de sens au regard de la loi
+- c'est possible de rajouter un texte dans les specs pour les valeurs nulles 
+&gt;&gt; texte à fournir par le GT</t>
   </si>
   <si>
     <r>
@@ -950,6 +1058,12 @@
     <t>2,70 | 2,10</t>
   </si>
   <si>
+    <t>- si passage en obligatoire, y a t'il une valeur par defaut pour toute la France? Cette valeur change t'elle selon que la route soit communale/départementale? &gt;&gt; a voir avec les textes de lois en vigueur
+&gt;&gt; GT doit voir les textes en vigeur pour leurs restrictions et faire une proposition en conséquence
+- c'est possible de rajouter un texte dans les specs pour les valeurs nulles 
+&gt;&gt; texte à fournir par le GT</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">Basculement de l'information en optionnel dans la mesure où l'information n'est pas simple à récupérer. L'attribut est conservé dans la table tronçon.
 </t>
@@ -1094,6 +1208,11 @@
     <t>TAC : voir cohérence d'un nouveau booléen avec json existant.</t>
   </si>
   <si>
+    <t xml:space="preserve">- notion de temporalité qui ne peut pas être portée par le standard. C'est la DDT qui maj cette information dans NaviForest  &gt;&gt; concrètement la remontée d'information sera décidée au niveau du GT2 (ce standard n'est pas concerné) &gt;&gt; supprimer ou mettre en optionnel? Inclure dans le standard pour que ca corresponde au json de la BD TOPO?
+- si conservé en optionnel, voir à inclure en ponctuel contrainte plutôt
+</t>
+  </si>
+  <si>
     <t>Méthode d'acquisition</t>
   </si>
   <si>
@@ -1268,6 +1387,10 @@
 -&gt; voir avec l'IGN</t>
   </si>
   <si>
+    <t>- demander au GT de fournir des compléments de définition/clarifier les éléments de descritpion dont ils ont besoin
+&gt;&gt; rajouter du texte dans les specs de la BD TOPO est possible, texte à fournir par le GT</t>
+  </si>
+  <si>
     <t>L'information de revêtement étant jugée importante par le GT, le remplissage doit être rendu obligatoire. Il est dérivé de la BD-Topo et le faible nombre de valeur possibles permet un remplissage facile dans le cas de saisie manuelle.</t>
   </si>
   <si>
@@ -1284,6 +1407,19 @@
   </si>
   <si>
     <t>attribut métier bois, pas de question BDTOPO.</t>
+  </si>
+  <si>
+    <t>à rapprocher de la caractérisation des véhicules DFCI pour tout inclure dans le même attribut</t>
+  </si>
+  <si>
+    <t>- supprimer du standard en tant que tel
+- A remplacer par l'attribut "Accessibilité aux ensemble routiers" (Troncon desserte forestiere accessible maximum)
+Null (ie NR)(valeur par defaut)
+Vehicule surbaissé
+Semi remorque 
+Camion remorque
+Grumier
+&gt;&gt; Attribut liste à discuter par les transportreurs de bois</t>
   </si>
   <si>
     <t>Praticabilité</t>
@@ -1330,6 +1466,9 @@
     <t>à ajouter si confirmé en GT</t>
   </si>
   <si>
+    <t>-Attribut à passer en ponctuel sur des critère moins subjectifs</t>
+  </si>
+  <si>
     <t>Accessibilité aux ensembles routiers sur-baissés</t>
   </si>
   <si>
@@ -1340,6 +1479,11 @@
   </si>
   <si>
     <t>Ajout de l'attribut de façon à prendre en compte les spécificités propres à cette catégorie de véhicule.</t>
+  </si>
+  <si>
+    <t>- supprimer du standard
+- remplacé par l'attribut Accessibilité aux ensemble routiers
+- liste à discuter par les transportreurs de bois</t>
   </si>
   <si>
     <t>Accessibilité aux fonds mouvants</t>
@@ -1378,6 +1522,10 @@
 comment sera gérée la cohérence avec DFCI ?</t>
   </si>
   <si>
+    <t>- à supprimer du standard
+- création de 2 attributs qui englobe en partie celui là : Réseau DFCI et Réseau transport de bois</t>
+  </si>
+  <si>
     <t>Attribut BDTOPO métier DFCI</t>
   </si>
   <si>
@@ -1403,7 +1551,12 @@
     <t>Sans valeur | Au moins une aire | Aucune | Plusieurs aires</t>
   </si>
   <si>
-    <t>pas de lien sémantique avec table équipement ?</t>
+    <t>pas de lien sémantique avec table équipement ?
+- élément à mettre plutôt dans la table équipement?</t>
+  </si>
+  <si>
+    <t>- Attribut à passer en ponctuel
+- Inclure une définition plus claire? Avec la taille et les longueurs?</t>
   </si>
   <si>
     <t>Gabarit DFCI</t>
@@ -1422,6 +1575,12 @@
     <t>https://bdtopoexplorer.ign.fr/?id_theme=72&amp;id_classe=77#attribute_2050</t>
   </si>
   <si>
+    <t>tjs d'accord?</t>
+  </si>
+  <si>
+    <t>pas de changement</t>
+  </si>
+  <si>
     <t>Impasse DFCI</t>
   </si>
   <si>
@@ -1435,6 +1594,10 @@
     <t>https://bdtopoexplorer.ign.fr/?id_theme=72&amp;id_classe=77#attribute_2059</t>
   </si>
   <si>
+    <t>- Besoin d'une défintion plus claire
+- passer en ponctuel? &gt;&gt; validation ANSC</t>
+  </si>
+  <si>
     <t>Attribut BDTOPO métier DFCI (confirmer le maintien)</t>
   </si>
   <si>
@@ -1480,6 +1643,9 @@
     <t>https://bdtopoexplorer.ign.fr/?id_theme=72&amp;id_classe=77#attribute_2053</t>
   </si>
   <si>
+    <t>pas de lien sémantique avec table équipement ?</t>
+  </si>
+  <si>
     <t>Pente maximale DFCI</t>
   </si>
   <si>
@@ -1496,7 +1662,11 @@
     <t>https://bdtopoexplorer.ign.fr/?id_theme=72&amp;id_classe=77#attribute_2055</t>
   </si>
   <si>
-    <t>attribut métier DFCI, pas de question BDTOPO.</t>
+    <t>attribut métier DFCI, pas de question BDTOPO.
+- élément dans la table contraintes : nature du point de contrainte</t>
+  </si>
+  <si>
+    <t>- Raccorder avec le ponctuel pente &gt;&gt; voir avec ANSC</t>
   </si>
   <si>
     <t>5- attribut métier DFCI</t>
@@ -1527,6 +1697,27 @@
 -&gt; un alignement doit être fait avec le GT Servitude concernant les pistes DFCI</t>
   </si>
   <si>
+    <t>- Evolution de la modélisation de ce type d'élément en discussion côté IGN. Pas réponse pour juin mais en cours (notre besoin a été remonté)
+- modélisation du CR serait trop contraignante. On propose un attribut de type liste (optionnel à la saisie mais sera présent pour tous les troncons BD TOPO)
+&gt;&gt; nom (à définir) : Type de piste/desserte 
+&gt;&gt; valeurs : nul par défaut | Desserte forestière | Usage DFCI | Servitude DFCI 
+&gt;&gt; valeurs à confirmer
+&gt;&gt; les notions seront à décrire pour les rentrer dans les specs de la BD TOPO
+&gt;&gt; Si on passe par une liste, la liste pourra être agrandie ultérieurement</t>
+  </si>
+  <si>
+    <t>- à supprimer du standard
+- création de 2 attributs qui englobe en partie celui là : Réseau DFCI et Réseau transport de bois :
+- Réseau DFCI (Liste) : Voie utilisée pour la DFCI
+null | Piste DFCI | Intérêt DFCI | autres voies DFCI
+&gt;&gt; (Voir définitions du GT servitude DFCI) et articles de loi 
+- Pour Piste DFCI :  (spécifier la servitude dans la définition)
+- Réseau transport de bois (liste) : Voie utilisée par les professionnels pour la gestion des forêts ou l’accès aux ressources forestières
+null | Desserte forestière | Itinéraire Bois Rond
+Si le champ ITBR est défini, voir les autres attributs ITBR pour retrouver les informations d’autorisations
+&gt;&gt; à valider avec ANSC</t>
+  </si>
+  <si>
     <t>Piste DFCI débroussaillée</t>
   </si>
   <si>
@@ -1540,6 +1731,12 @@
     <t>https://bdtopoexplorer.ign.fr/?id_theme=72&amp;id_classe=77#attribute_2051</t>
   </si>
   <si>
+    <t>attribut métier DFCI, pas de question BDTOPO.</t>
+  </si>
+  <si>
+    <t>- pas de besoin, à supprimer du standard/BD TOPO &gt;&gt; à valider ANSC</t>
+  </si>
+  <si>
     <t>Piste DFCI fossés</t>
   </si>
   <si>
@@ -1556,6 +1753,9 @@
     <t>https://bdtopoexplorer.ign.fr/?id_theme=72&amp;id_classe=77#attribute_2052</t>
   </si>
   <si>
+    <t>- passage en optionnel</t>
+  </si>
+  <si>
     <t>Sens de circulation DFCI</t>
   </si>
   <si>
@@ -1575,6 +1775,9 @@
     <t>nécessaire ? L'attribut Sens de circulation de la BDTOPO n'est pas suffisant ou différent ?</t>
   </si>
   <si>
+    <t>- a voir avec l'ANSC &gt;&gt; rapprochement possible avec le sens de circulation classique BD TOPO</t>
+  </si>
+  <si>
     <t>Tout terrain DFCI</t>
   </si>
   <si>
@@ -1608,6 +1811,9 @@
     <t>https://bdtopoexplorer.ign.fr/?id_theme=72&amp;id_classe=77#attribute_2048</t>
   </si>
   <si>
+    <t>- passer en optionnel</t>
+  </si>
+  <si>
     <t>Zone de croisement DFCI</t>
   </si>
   <si>
@@ -1627,6 +1833,14 @@
     <t>Sans valeur | Au moins une zone | Aucune | Plusieurs zones</t>
   </si>
   <si>
+    <t>pas de lien sémantique avec table équipement ?
+- ponctuel aire de croisements dans standard bois</t>
+  </si>
+  <si>
+    <t>- Attribut à passer en ponctuel (poncutel "Aire de croisement' dans standard V1)
+- Inclure une définition plus claire? Avec la taille et les longueurs?</t>
+  </si>
+  <si>
     <t>Catégorie DFCI</t>
   </si>
   <si>
@@ -1645,6 +1859,10 @@
   <si>
     <t>attribut métier DFCI, pas de question BDTOPO.
 En BDTOPO on été privilégié des valeurs "en français" plutôt que des codes, pour faciliter l'utilisation des données.</t>
+  </si>
+  <si>
+    <t>- passer en optionnel
+- Attention, les catégories varient par département. Il nous faut des définitions des catégories, à apporter par les acteurs DFCI. Document a transmettre pour définition claire des catégories</t>
   </si>
   <si>
     <t>Type de route = Piste DFCI (pour nom et numéro de route DFCI)</t>
@@ -1658,6 +1876,20 @@
 SHP : </t>
   </si>
   <si>
+    <t>booléen</t>
+  </si>
+  <si>
+    <t>définition pas claire dans la BD TOPO, servirait à définir la servitude DFCI</t>
+  </si>
+  <si>
+    <t>serait remplacé par l'attribut piste DFCI directement</t>
+  </si>
+  <si>
+    <t>- à supprimer du standard
+- création de 2 attributs qui englobe en partie celui là : Réseau DFCI et Réseau transport de bois
+&gt;&gt; à valider ANSC</t>
+  </si>
+  <si>
     <t>statut</t>
   </si>
   <si>
@@ -1671,6 +1903,9 @@
   </si>
   <si>
     <t>Une discussion a été engagée autour de cet élément mais sans décisions. Des échanges complémentaires sont nécéssaires pour établir une décision</t>
+  </si>
+  <si>
+    <t>non discuté</t>
   </si>
   <si>
     <t>L'élément n'a pas encore été passé en revue par le GT</t>
@@ -1805,7 +2040,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -1915,12 +2150,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2007,18 +2273,6 @@
     <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2089,27 +2343,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="1" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2122,77 +2358,126 @@
     <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" xr:uid="{00000000-000B-0000-0000-000008000000}"/>
+    <cellStyle name="Lien hypertexte" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2512,9 +2797,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35F3D80D-56B4-4DE5-BFE2-26512BB7AF2F}">
   <dimension ref="A1:AMS47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="D29" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H32" sqref="H32"/>
+    <sheetView tabSelected="1" topLeftCell="C37" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E3" sqref="E3"/>
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
@@ -2535,55 +2820,65 @@
     <col min="14" max="15" width="22.7109375" style="16" customWidth="1"/>
     <col min="16" max="16" width="34.5703125" style="16" customWidth="1"/>
     <col min="17" max="17" width="22.7109375" style="18" customWidth="1"/>
-    <col min="18" max="18" width="39.28515625" style="34" customWidth="1"/>
+    <col min="18" max="18" width="39.28515625" style="30" customWidth="1"/>
     <col min="19" max="19" width="46.7109375" style="3" customWidth="1"/>
-    <col min="20" max="21" width="46.7109375" style="2" customWidth="1"/>
+    <col min="20" max="20" width="46.7109375" style="2" customWidth="1"/>
+    <col min="21" max="21" width="46.5703125" style="2" customWidth="1"/>
     <col min="22" max="22" width="43.140625" style="2" hidden="1" customWidth="1"/>
     <col min="23" max="23" width="12.7109375" style="2" hidden="1" customWidth="1"/>
     <col min="24" max="24" width="37.42578125" style="2" hidden="1" customWidth="1"/>
-    <col min="25" max="25" width="17.85546875" style="19" hidden="1" customWidth="1"/>
-    <col min="26" max="1033" width="11.42578125" style="15"/>
+    <col min="25" max="25" width="0.140625" style="19" hidden="1" customWidth="1"/>
+    <col min="26" max="26" width="47.7109375" style="15" customWidth="1"/>
+    <col min="27" max="27" width="69.140625" style="86" customWidth="1"/>
+    <col min="28" max="28" width="80" style="96" customWidth="1"/>
+    <col min="29" max="29" width="11.42578125" style="90"/>
+    <col min="30" max="1033" width="11.42578125" style="15"/>
     <col min="1034" max="16384" width="11.42578125" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="42.6" customHeight="1">
-      <c r="A1" s="43"/>
-      <c r="B1" s="43"/>
-      <c r="C1" s="36" t="s">
+    <row r="1" spans="1:30" ht="42.6" customHeight="1">
+      <c r="A1" s="39"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="84" t="s">
+      <c r="D1" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="85"/>
-      <c r="F1" s="85"/>
-      <c r="G1" s="85"/>
-      <c r="H1" s="85"/>
-      <c r="I1" s="85"/>
-      <c r="J1" s="86"/>
-      <c r="K1" s="87" t="s">
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="88"/>
-      <c r="M1" s="88"/>
-      <c r="N1" s="88"/>
-      <c r="O1" s="88"/>
-      <c r="P1" s="88"/>
-      <c r="Q1" s="89"/>
-      <c r="R1" s="35" t="s">
+      <c r="L1" s="71"/>
+      <c r="M1" s="71"/>
+      <c r="N1" s="71"/>
+      <c r="O1" s="71"/>
+      <c r="P1" s="71"/>
+      <c r="Q1" s="72"/>
+      <c r="R1" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="S1" s="90" t="s">
+      <c r="S1" s="73" t="s">
         <v>4</v>
       </c>
-      <c r="T1" s="91"/>
-      <c r="U1" s="92"/>
-      <c r="V1" s="16"/>
-      <c r="W1" s="16"/>
-      <c r="X1" s="16"/>
-      <c r="Y1" s="17"/>
+      <c r="T1" s="74"/>
+      <c r="U1" s="74"/>
+      <c r="V1" s="64"/>
+      <c r="W1" s="64"/>
+      <c r="X1" s="64"/>
+      <c r="Y1" s="64"/>
+      <c r="Z1" s="74"/>
+      <c r="AA1" s="74"/>
+      <c r="AB1" s="91"/>
+      <c r="AC1" s="74"/>
+      <c r="AD1" s="75"/>
     </row>
-    <row r="2" spans="1:25" s="15" customFormat="1" ht="78.75">
+    <row r="2" spans="1:30" s="15" customFormat="1" ht="299.25">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -2635,7 +2930,7 @@
       <c r="Q2" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="R2" s="37" t="s">
+      <c r="R2" s="33" t="s">
         <v>22</v>
       </c>
       <c r="S2" s="11" t="s">
@@ -2644,35 +2939,48 @@
       <c r="T2" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="U2" s="12"/>
+      <c r="U2" s="12" t="s">
+        <v>25</v>
+      </c>
       <c r="V2" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="W2" s="13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="X2" s="14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Y2" s="14" t="s">
-        <v>28</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="Z2" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA2" s="82" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB2" s="92" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC2" s="87"/>
+      <c r="AD2" s="12"/>
     </row>
-    <row r="3" spans="1:25" s="29" customFormat="1" ht="60.75">
-      <c r="A3" s="44" t="s">
-        <v>29</v>
-      </c>
-      <c r="B3" s="44" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" s="45" t="s">
-        <v>31</v>
-      </c>
-      <c r="D3" s="46">
+    <row r="3" spans="1:30" s="29" customFormat="1" ht="126">
+      <c r="A3" s="65" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="65" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="41" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="42">
         <v>1</v>
       </c>
       <c r="E3" s="26" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F3" s="26"/>
       <c r="G3" s="26"/>
@@ -2680,2828 +2988,3060 @@
       <c r="I3" s="26"/>
       <c r="J3" s="27"/>
       <c r="K3" s="28" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="L3" s="26" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="M3" s="26"/>
       <c r="N3" s="26"/>
-      <c r="O3" s="77" t="s">
-        <v>33</v>
+      <c r="O3" s="61" t="s">
+        <v>37</v>
       </c>
       <c r="P3" s="26"/>
       <c r="Q3" s="27"/>
-      <c r="R3" s="55" t="s">
-        <v>34</v>
+      <c r="R3" s="51" t="s">
+        <v>38</v>
       </c>
       <c r="S3" s="28" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="T3" s="26"/>
       <c r="U3" s="26"/>
-      <c r="V3" s="16"/>
-      <c r="W3" s="16"/>
-      <c r="X3" s="16"/>
-      <c r="Y3" s="17" t="s">
-        <v>36</v>
-      </c>
+      <c r="V3" s="26"/>
+      <c r="W3" s="26"/>
+      <c r="X3" s="26"/>
+      <c r="Y3" s="66" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA3" s="83"/>
+      <c r="AB3" s="93"/>
+      <c r="AC3" s="88"/>
     </row>
-    <row r="4" spans="1:25" s="29" customFormat="1" ht="64.5">
-      <c r="A4" s="44" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4" s="44" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" s="45" t="s">
-        <v>37</v>
-      </c>
-      <c r="D4" s="46">
+    <row r="4" spans="1:30" s="29" customFormat="1" ht="110.25">
+      <c r="A4" s="65" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="65" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="41" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" s="42">
         <v>2</v>
       </c>
-      <c r="E4" s="48" t="s">
+      <c r="E4" s="44" t="s">
+        <v>42</v>
+      </c>
+      <c r="F4" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="G4" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="H4" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="I4" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="J4" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="K4" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="L4" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="M4" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="N4" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="O4" s="61" t="s">
+        <v>52</v>
+      </c>
+      <c r="P4" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q4" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="R4" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="F4" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="G4" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="H4" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="I4" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="J4" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="K4" s="28" t="s">
-        <v>44</v>
-      </c>
-      <c r="L4" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="M4" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="N4" s="26" t="s">
-        <v>47</v>
-      </c>
-      <c r="O4" s="77" t="s">
-        <v>48</v>
-      </c>
-      <c r="P4" s="26" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q4" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="R4" s="47" t="s">
-        <v>34</v>
-      </c>
       <c r="S4" s="28" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="T4" s="26" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="U4" s="26"/>
-      <c r="V4" s="16"/>
-      <c r="W4" s="16"/>
-      <c r="X4" s="16"/>
-      <c r="Y4" s="17" t="s">
-        <v>53</v>
-      </c>
+      <c r="V4" s="26"/>
+      <c r="W4" s="26"/>
+      <c r="X4" s="26"/>
+      <c r="Y4" s="66" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA4" s="83"/>
+      <c r="AB4" s="93"/>
+      <c r="AC4" s="88"/>
     </row>
-    <row r="5" spans="1:25" s="21" customFormat="1" ht="210.75">
-      <c r="A5" s="49" t="s">
+    <row r="5" spans="1:30" s="29" customFormat="1" ht="409.5">
+      <c r="A5" s="65" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" s="65" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5" s="41" t="s">
+        <v>60</v>
+      </c>
+      <c r="D5" s="42">
+        <v>3</v>
+      </c>
+      <c r="E5" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="F5" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="G5" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="H5" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="I5" s="65">
+        <v>19227</v>
+      </c>
+      <c r="J5" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="B5" s="49" t="s">
-        <v>55</v>
-      </c>
-      <c r="C5" s="50" t="s">
-        <v>56</v>
-      </c>
-      <c r="D5" s="51">
-        <v>3</v>
-      </c>
-      <c r="E5" s="20" t="s">
+      <c r="K5" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="L5" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="M5" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="N5" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="O5" s="61" t="s">
+        <v>69</v>
+      </c>
+      <c r="P5" s="81">
+        <v>27098</v>
+      </c>
+      <c r="Q5" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="R5" s="51" t="s">
+        <v>38</v>
+      </c>
+      <c r="S5" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="T5" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="U5" s="58" t="s">
+        <v>73</v>
+      </c>
+      <c r="V5" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="W5" s="76" t="s">
+        <v>75</v>
+      </c>
+      <c r="X5" s="66"/>
+      <c r="Y5" s="66" t="s">
         <v>57</v>
       </c>
-      <c r="F5" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="G5" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="H5" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="I5" s="49">
-        <v>19227</v>
-      </c>
-      <c r="J5" s="52" t="s">
-        <v>50</v>
-      </c>
-      <c r="K5" s="53" t="s">
-        <v>61</v>
-      </c>
-      <c r="L5" s="20" t="s">
+      <c r="Z5" s="78" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA5" s="83" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB5" s="93" t="s">
+        <v>78</v>
+      </c>
+      <c r="AC5" s="88"/>
+    </row>
+    <row r="6" spans="1:30" s="29" customFormat="1" ht="309.95" customHeight="1">
+      <c r="A6" s="65" t="s">
+        <v>79</v>
+      </c>
+      <c r="B6" s="65" t="s">
+        <v>80</v>
+      </c>
+      <c r="C6" s="41" t="s">
+        <v>81</v>
+      </c>
+      <c r="D6" s="42">
+        <v>4</v>
+      </c>
+      <c r="E6" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="F6" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="M5" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="N5" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="O5" s="76" t="s">
-        <v>65</v>
-      </c>
-      <c r="P5" s="80">
-        <v>27098</v>
-      </c>
-      <c r="Q5" s="52" t="s">
+      <c r="G6" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="H6" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="I6" s="65"/>
+      <c r="J6" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="K6" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="L6" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="R5" s="39" t="s">
-        <v>67</v>
-      </c>
-      <c r="S5" s="53" t="s">
-        <v>68</v>
-      </c>
-      <c r="T5" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="U5" s="20"/>
-      <c r="V5" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="W5" s="65" t="s">
-        <v>71</v>
-      </c>
-      <c r="X5" s="54"/>
-      <c r="Y5" s="54" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="6" spans="1:25" s="29" customFormat="1" ht="146.25">
-      <c r="A6" s="49" t="s">
-        <v>72</v>
-      </c>
-      <c r="B6" s="49" t="s">
-        <v>73</v>
-      </c>
-      <c r="C6" s="60" t="s">
-        <v>74</v>
-      </c>
-      <c r="D6" s="61">
-        <v>4</v>
-      </c>
-      <c r="E6" s="30" t="s">
-        <v>75</v>
-      </c>
-      <c r="F6" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="G6" s="30" t="s">
-        <v>76</v>
-      </c>
-      <c r="H6" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="I6" s="62"/>
-      <c r="J6" s="63" t="s">
-        <v>50</v>
-      </c>
-      <c r="K6" s="64" t="s">
-        <v>77</v>
-      </c>
-      <c r="L6" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="M6" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="N6" s="78" t="s">
-        <v>78</v>
-      </c>
-      <c r="O6" s="30" t="s">
-        <v>79</v>
+      <c r="M6" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="N6" s="80" t="s">
+        <v>86</v>
+      </c>
+      <c r="O6" s="26" t="s">
+        <v>87</v>
       </c>
       <c r="P6" s="81">
         <v>27</v>
       </c>
-      <c r="Q6" s="63" t="s">
+      <c r="Q6" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="R6" s="51" t="s">
+        <v>88</v>
+      </c>
+      <c r="S6" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="T6" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="U6" s="58" t="s">
+        <v>91</v>
+      </c>
+      <c r="V6" s="26"/>
+      <c r="W6" s="76" t="s">
+        <v>92</v>
+      </c>
+      <c r="X6" s="76" t="s">
+        <v>93</v>
+      </c>
+      <c r="Y6" s="66" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z6" s="78" t="s">
+        <v>94</v>
+      </c>
+      <c r="AA6" s="84" t="s">
+        <v>95</v>
+      </c>
+      <c r="AB6" s="93" t="s">
+        <v>96</v>
+      </c>
+      <c r="AC6" s="88"/>
+    </row>
+    <row r="7" spans="1:30" s="29" customFormat="1" ht="279" customHeight="1">
+      <c r="A7" s="65" t="s">
+        <v>58</v>
+      </c>
+      <c r="B7" s="65" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" s="41" t="s">
+        <v>97</v>
+      </c>
+      <c r="D7" s="42">
+        <v>5</v>
+      </c>
+      <c r="E7" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="F7" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="G7" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="H7" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="I7" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="J7" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="K7" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="L7" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="R6" s="40" t="s">
-        <v>80</v>
-      </c>
-      <c r="S6" s="64" t="s">
-        <v>81</v>
-      </c>
-      <c r="T6" s="30" t="s">
-        <v>82</v>
-      </c>
-      <c r="U6" s="30"/>
-      <c r="V6" s="20"/>
-      <c r="W6" s="65" t="s">
-        <v>83</v>
-      </c>
-      <c r="X6" s="65" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y6" s="54" t="s">
-        <v>53</v>
-      </c>
+      <c r="M7" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="N7" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="O7" s="61" t="s">
+        <v>104</v>
+      </c>
+      <c r="P7" s="26" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q7" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="R7" s="51" t="s">
+        <v>38</v>
+      </c>
+      <c r="S7" s="28" t="s">
+        <v>106</v>
+      </c>
+      <c r="T7" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="U7" s="26"/>
+      <c r="V7" s="26" t="s">
+        <v>108</v>
+      </c>
+      <c r="W7" s="76" t="s">
+        <v>100</v>
+      </c>
+      <c r="X7" s="66" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y7" s="66" t="s">
+        <v>110</v>
+      </c>
+      <c r="AA7" s="83"/>
+      <c r="AB7" s="94" t="s">
+        <v>111</v>
+      </c>
+      <c r="AC7" s="88"/>
     </row>
-    <row r="7" spans="1:25" s="29" customFormat="1" ht="279" customHeight="1">
-      <c r="A7" s="49" t="s">
+    <row r="8" spans="1:30" s="29" customFormat="1" ht="126" outlineLevel="1">
+      <c r="A8" s="65" t="s">
+        <v>112</v>
+      </c>
+      <c r="B8" s="65" t="s">
+        <v>113</v>
+      </c>
+      <c r="C8" s="41" t="s">
+        <v>114</v>
+      </c>
+      <c r="D8" s="42">
+        <v>7</v>
+      </c>
+      <c r="E8" s="26" t="s">
+        <v>115</v>
+      </c>
+      <c r="F8" s="26" t="s">
+        <v>116</v>
+      </c>
+      <c r="G8" s="26" t="s">
+        <v>117</v>
+      </c>
+      <c r="H8" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="I8" s="26" t="s">
+        <v>119</v>
+      </c>
+      <c r="J8" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="B7" s="49" t="s">
-        <v>55</v>
-      </c>
-      <c r="C7" s="60" t="s">
-        <v>85</v>
-      </c>
-      <c r="D7" s="61">
-        <v>5</v>
-      </c>
-      <c r="E7" s="30" t="s">
-        <v>86</v>
-      </c>
-      <c r="F7" s="30" t="s">
+      <c r="K8" s="28"/>
+      <c r="L8" s="26"/>
+      <c r="M8" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="N8" s="26"/>
+      <c r="O8" s="26"/>
+      <c r="P8" s="26"/>
+      <c r="Q8" s="27"/>
+      <c r="R8" s="51" t="s">
+        <v>38</v>
+      </c>
+      <c r="S8" s="28"/>
+      <c r="T8" s="26"/>
+      <c r="U8" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="V8" s="26"/>
+      <c r="W8" s="76" t="s">
+        <v>121</v>
+      </c>
+      <c r="X8" s="77" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y8" s="66" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA8" s="83"/>
+      <c r="AB8" s="94" t="s">
+        <v>123</v>
+      </c>
+      <c r="AC8" s="88"/>
+    </row>
+    <row r="9" spans="1:30" s="29" customFormat="1" ht="409.5">
+      <c r="A9" s="65" t="s">
         <v>58</v>
       </c>
-      <c r="G7" s="30" t="s">
-        <v>87</v>
-      </c>
-      <c r="H7" s="30" t="s">
-        <v>60</v>
-      </c>
-      <c r="I7" s="30" t="s">
-        <v>88</v>
-      </c>
-      <c r="J7" s="63" t="s">
-        <v>50</v>
-      </c>
-      <c r="K7" s="64" t="s">
-        <v>89</v>
-      </c>
-      <c r="L7" s="30" t="s">
+      <c r="B9" s="65" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="41" t="s">
+        <v>124</v>
+      </c>
+      <c r="D9" s="42">
+        <v>8</v>
+      </c>
+      <c r="E9" s="26" t="s">
+        <v>125</v>
+      </c>
+      <c r="F9" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="G9" s="26" t="s">
+        <v>124</v>
+      </c>
+      <c r="H9" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="I9" s="26" t="s">
+        <v>128</v>
+      </c>
+      <c r="J9" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="K9" s="28" t="s">
+        <v>129</v>
+      </c>
+      <c r="L9" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="M9" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="N9" s="26" t="s">
+        <v>130</v>
+      </c>
+      <c r="O9" s="98" t="s">
+        <v>131</v>
+      </c>
+      <c r="P9" s="26" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q9" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="R9" s="51" t="s">
+        <v>38</v>
+      </c>
+      <c r="S9" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="T9" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="U9" s="26"/>
+      <c r="V9" s="26"/>
+      <c r="W9" s="26" t="s">
+        <v>135</v>
+      </c>
+      <c r="X9" s="26" t="s">
+        <v>136</v>
+      </c>
+      <c r="Y9" s="66" t="s">
+        <v>110</v>
+      </c>
+      <c r="AA9" s="83" t="s">
+        <v>137</v>
+      </c>
+      <c r="AB9" s="93"/>
+      <c r="AC9" s="88"/>
+    </row>
+    <row r="10" spans="1:30" s="29" customFormat="1" ht="126">
+      <c r="A10" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="41" t="s">
+        <v>138</v>
+      </c>
+      <c r="D10" s="42">
+        <v>9</v>
+      </c>
+      <c r="E10" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="F10" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="M7" s="30" t="s">
-        <v>90</v>
-      </c>
-      <c r="N7" s="30" t="s">
-        <v>91</v>
-      </c>
-      <c r="O7" s="79" t="s">
-        <v>92</v>
-      </c>
-      <c r="P7" s="30" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q7" s="63" t="s">
-        <v>66</v>
-      </c>
-      <c r="R7" s="40" t="s">
-        <v>80</v>
-      </c>
-      <c r="S7" s="64" t="s">
-        <v>94</v>
-      </c>
-      <c r="T7" s="30" t="s">
-        <v>95</v>
-      </c>
-      <c r="U7" s="30"/>
-      <c r="V7" s="20" t="s">
-        <v>96</v>
-      </c>
-      <c r="W7" s="65" t="s">
-        <v>88</v>
-      </c>
-      <c r="X7" s="54" t="s">
-        <v>97</v>
-      </c>
-      <c r="Y7" s="54" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="8" spans="1:25" s="21" customFormat="1" ht="64.5" outlineLevel="1">
-      <c r="A8" s="44" t="s">
-        <v>99</v>
-      </c>
-      <c r="B8" s="44" t="s">
-        <v>100</v>
-      </c>
-      <c r="C8" s="69" t="s">
-        <v>101</v>
-      </c>
-      <c r="D8" s="70">
-        <v>7</v>
-      </c>
-      <c r="E8" s="32" t="s">
+      <c r="G10" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="H10" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="I10" s="26" t="s">
+        <v>141</v>
+      </c>
+      <c r="J10" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="K10" s="28" t="s">
+        <v>142</v>
+      </c>
+      <c r="L10" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="M10" s="26" t="s">
         <v>102</v>
       </c>
-      <c r="F8" s="32" t="s">
-        <v>103</v>
-      </c>
-      <c r="G8" s="32" t="s">
-        <v>104</v>
-      </c>
-      <c r="H8" s="32" t="s">
-        <v>105</v>
-      </c>
-      <c r="I8" s="32" t="s">
-        <v>106</v>
-      </c>
-      <c r="J8" s="71" t="s">
-        <v>50</v>
-      </c>
-      <c r="K8" s="72"/>
-      <c r="L8" s="32"/>
-      <c r="M8" s="32" t="s">
-        <v>105</v>
-      </c>
-      <c r="N8" s="32"/>
-      <c r="O8" s="32"/>
-      <c r="P8" s="32"/>
-      <c r="Q8" s="71"/>
-      <c r="R8" s="41" t="s">
-        <v>107</v>
-      </c>
-      <c r="S8" s="72"/>
-      <c r="T8" s="32"/>
-      <c r="U8" s="32"/>
-      <c r="V8" s="16"/>
-      <c r="W8" s="56" t="s">
-        <v>108</v>
-      </c>
-      <c r="X8" s="57" t="s">
-        <v>109</v>
-      </c>
-      <c r="Y8" s="17" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25" s="29" customFormat="1" ht="64.5">
-      <c r="A9" s="49" t="s">
+      <c r="N10" s="26" t="s">
+        <v>143</v>
+      </c>
+      <c r="O10" s="61" t="s">
+        <v>144</v>
+      </c>
+      <c r="P10" s="26" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q10" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="B9" s="49" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" s="50" t="s">
-        <v>110</v>
-      </c>
-      <c r="D9" s="51">
-        <v>8</v>
-      </c>
-      <c r="E9" s="20" t="s">
-        <v>111</v>
-      </c>
-      <c r="F9" s="20" t="s">
-        <v>112</v>
-      </c>
-      <c r="G9" s="20" t="s">
-        <v>110</v>
-      </c>
-      <c r="H9" s="20" t="s">
-        <v>113</v>
-      </c>
-      <c r="I9" s="20" t="s">
-        <v>114</v>
-      </c>
-      <c r="J9" s="52" t="s">
-        <v>50</v>
-      </c>
-      <c r="K9" s="53" t="s">
-        <v>115</v>
-      </c>
-      <c r="L9" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="M9" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="N9" s="20" t="s">
-        <v>116</v>
-      </c>
-      <c r="O9" s="76" t="s">
-        <v>117</v>
-      </c>
-      <c r="P9" s="20" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q9" s="52" t="s">
-        <v>66</v>
-      </c>
-      <c r="R9" s="39" t="s">
-        <v>67</v>
-      </c>
-      <c r="S9" s="53" t="s">
-        <v>119</v>
-      </c>
-      <c r="T9" s="20" t="s">
-        <v>120</v>
-      </c>
-      <c r="U9" s="20"/>
-      <c r="V9" s="20"/>
-      <c r="W9" s="20" t="s">
-        <v>121</v>
-      </c>
-      <c r="X9" s="20" t="s">
-        <v>122</v>
-      </c>
-      <c r="Y9" s="54" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="10" spans="1:25" s="31" customFormat="1" ht="129">
-      <c r="A10" s="44" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" s="44" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" s="45" t="s">
-        <v>123</v>
-      </c>
-      <c r="D10" s="46">
-        <v>9</v>
-      </c>
-      <c r="E10" s="26" t="s">
-        <v>124</v>
-      </c>
-      <c r="F10" s="26" t="s">
-        <v>58</v>
-      </c>
-      <c r="G10" s="26" t="s">
-        <v>125</v>
-      </c>
-      <c r="H10" s="26" t="s">
-        <v>113</v>
-      </c>
-      <c r="I10" s="26" t="s">
-        <v>126</v>
-      </c>
-      <c r="J10" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="K10" s="28" t="s">
-        <v>127</v>
-      </c>
-      <c r="L10" s="26" t="s">
-        <v>58</v>
-      </c>
-      <c r="M10" s="26" t="s">
-        <v>90</v>
-      </c>
-      <c r="N10" s="26" t="s">
-        <v>128</v>
-      </c>
-      <c r="O10" s="77" t="s">
-        <v>129</v>
-      </c>
-      <c r="P10" s="26" t="s">
-        <v>130</v>
-      </c>
-      <c r="Q10" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="R10" s="55" t="s">
-        <v>34</v>
+      <c r="R10" s="51" t="s">
+        <v>38</v>
       </c>
       <c r="S10" s="28" t="s">
-        <v>131</v>
+        <v>146</v>
       </c>
       <c r="T10" s="26" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="U10" s="26"/>
       <c r="V10" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="W10" s="56" t="s">
-        <v>126</v>
-      </c>
-      <c r="X10" s="57"/>
+        <v>147</v>
+      </c>
+      <c r="W10" s="52" t="s">
+        <v>141</v>
+      </c>
+      <c r="X10" s="53"/>
       <c r="Y10" s="17" t="s">
-        <v>36</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="AA10" s="83"/>
+      <c r="AB10" s="93"/>
+      <c r="AC10" s="88"/>
     </row>
-    <row r="11" spans="1:25" s="31" customFormat="1" ht="81">
-      <c r="A11" s="44" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" s="44" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" s="45" t="s">
-        <v>133</v>
-      </c>
-      <c r="D11" s="46">
+    <row r="11" spans="1:30" s="29" customFormat="1" ht="141.75">
+      <c r="A11" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="41" t="s">
+        <v>148</v>
+      </c>
+      <c r="D11" s="42">
         <v>10</v>
       </c>
       <c r="E11" s="26" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="F11" s="26" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="G11" s="26" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="H11" s="26" t="s">
-        <v>136</v>
+        <v>151</v>
       </c>
       <c r="I11" s="26" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="J11" s="27" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="K11" s="28" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="L11" s="26" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="M11" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="N11" s="82" t="s">
-        <v>139</v>
-      </c>
-      <c r="O11" s="77" t="s">
-        <v>140</v>
+        <v>84</v>
+      </c>
+      <c r="N11" s="62" t="s">
+        <v>154</v>
+      </c>
+      <c r="O11" s="61" t="s">
+        <v>155</v>
       </c>
       <c r="P11" s="26" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="Q11" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="R11" s="55" t="s">
-        <v>34</v>
+        <v>54</v>
+      </c>
+      <c r="R11" s="51" t="s">
+        <v>38</v>
       </c>
       <c r="S11" s="28"/>
       <c r="T11" s="26" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="U11" s="26"/>
       <c r="V11" s="16" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="W11" s="16" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="X11" s="16"/>
       <c r="Y11" s="17" t="s">
-        <v>36</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="AA11" s="83"/>
+      <c r="AB11" s="93"/>
+      <c r="AC11" s="88"/>
     </row>
-    <row r="12" spans="1:25" s="21" customFormat="1" ht="409.6">
-      <c r="A12" s="49" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12" s="49" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" s="50" t="s">
-        <v>143</v>
-      </c>
-      <c r="D12" s="51">
+    <row r="12" spans="1:30" s="29" customFormat="1" ht="409.5">
+      <c r="A12" s="65" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="65" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="41" t="s">
+        <v>158</v>
+      </c>
+      <c r="D12" s="42">
         <v>11</v>
       </c>
-      <c r="E12" s="20" t="s">
-        <v>144</v>
-      </c>
-      <c r="F12" s="20" t="s">
+      <c r="E12" s="26" t="s">
+        <v>159</v>
+      </c>
+      <c r="F12" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="G12" s="26" t="s">
+        <v>160</v>
+      </c>
+      <c r="H12" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="I12" s="26" t="s">
+        <v>161</v>
+      </c>
+      <c r="J12" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="K12" s="28" t="s">
+        <v>162</v>
+      </c>
+      <c r="L12" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="M12" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="N12" s="26" t="s">
+        <v>163</v>
+      </c>
+      <c r="O12" s="61" t="s">
+        <v>164</v>
+      </c>
+      <c r="P12" s="26" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q12" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="R12" s="51" t="s">
+        <v>38</v>
+      </c>
+      <c r="S12" s="28" t="s">
+        <v>166</v>
+      </c>
+      <c r="T12" s="26" t="s">
+        <v>167</v>
+      </c>
+      <c r="U12" s="26"/>
+      <c r="V12" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="W12" s="26"/>
+      <c r="X12" s="26" t="s">
+        <v>169</v>
+      </c>
+      <c r="Y12" s="79" t="s">
+        <v>170</v>
+      </c>
+      <c r="AA12" s="83"/>
+      <c r="AB12" s="93"/>
+      <c r="AC12" s="88"/>
+    </row>
+    <row r="13" spans="1:30" s="29" customFormat="1" ht="362.25">
+      <c r="A13" s="65" t="s">
         <v>58</v>
       </c>
-      <c r="G12" s="20" t="s">
-        <v>145</v>
-      </c>
-      <c r="H12" s="20" t="s">
-        <v>113</v>
-      </c>
-      <c r="I12" s="20" t="s">
-        <v>146</v>
-      </c>
-      <c r="J12" s="52" t="s">
-        <v>50</v>
-      </c>
-      <c r="K12" s="53" t="s">
-        <v>147</v>
-      </c>
-      <c r="L12" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="M12" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="N12" s="20" t="s">
-        <v>148</v>
-      </c>
-      <c r="O12" s="76" t="s">
-        <v>149</v>
-      </c>
-      <c r="P12" s="20" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q12" s="52" t="s">
-        <v>50</v>
-      </c>
-      <c r="R12" s="39" t="s">
-        <v>67</v>
-      </c>
-      <c r="S12" s="53" t="s">
-        <v>151</v>
-      </c>
-      <c r="T12" s="20" t="s">
-        <v>152</v>
-      </c>
-      <c r="U12" s="20"/>
-      <c r="V12" s="20" t="s">
-        <v>153</v>
-      </c>
-      <c r="W12" s="20"/>
-      <c r="X12" s="20" t="s">
-        <v>154</v>
-      </c>
-      <c r="Y12" s="58" t="s">
-        <v>155</v>
-      </c>
+      <c r="B13" s="65" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" s="41" t="s">
+        <v>171</v>
+      </c>
+      <c r="D13" s="42">
+        <v>12</v>
+      </c>
+      <c r="E13" s="26" t="s">
+        <v>172</v>
+      </c>
+      <c r="F13" s="26" t="s">
+        <v>173</v>
+      </c>
+      <c r="G13" s="26" t="s">
+        <v>174</v>
+      </c>
+      <c r="H13" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="I13" s="26" t="s">
+        <v>175</v>
+      </c>
+      <c r="J13" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="K13" s="28" t="s">
+        <v>176</v>
+      </c>
+      <c r="L13" s="26" t="s">
+        <v>177</v>
+      </c>
+      <c r="M13" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="N13" s="26" t="s">
+        <v>178</v>
+      </c>
+      <c r="O13" s="61" t="s">
+        <v>179</v>
+      </c>
+      <c r="P13" s="26" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q13" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="R13" s="51" t="s">
+        <v>38</v>
+      </c>
+      <c r="S13" s="28" t="s">
+        <v>181</v>
+      </c>
+      <c r="T13" s="26" t="s">
+        <v>182</v>
+      </c>
+      <c r="U13" s="26"/>
+      <c r="V13" s="26" t="s">
+        <v>183</v>
+      </c>
+      <c r="W13" s="26"/>
+      <c r="X13" s="26" t="s">
+        <v>184</v>
+      </c>
+      <c r="Y13" s="66" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z13" s="29" t="s">
+        <v>185</v>
+      </c>
+      <c r="AA13" s="83"/>
+      <c r="AB13" s="93"/>
+      <c r="AC13" s="88"/>
     </row>
-    <row r="13" spans="1:25" s="31" customFormat="1" ht="356.25">
-      <c r="A13" s="49" t="s">
+    <row r="14" spans="1:30" s="29" customFormat="1" ht="110.25">
+      <c r="A14" s="65" t="s">
+        <v>186</v>
+      </c>
+      <c r="B14" s="65" t="s">
+        <v>80</v>
+      </c>
+      <c r="C14" s="41" t="s">
+        <v>187</v>
+      </c>
+      <c r="D14" s="42">
+        <v>13</v>
+      </c>
+      <c r="E14" s="26" t="s">
+        <v>188</v>
+      </c>
+      <c r="F14" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="G14" s="26" t="s">
+        <v>190</v>
+      </c>
+      <c r="H14" s="26" t="s">
+        <v>191</v>
+      </c>
+      <c r="I14" s="26" t="s">
+        <v>192</v>
+      </c>
+      <c r="J14" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="B13" s="49" t="s">
-        <v>55</v>
-      </c>
-      <c r="C13" s="60" t="s">
-        <v>156</v>
-      </c>
-      <c r="D13" s="61">
-        <v>12</v>
-      </c>
-      <c r="E13" s="30" t="s">
-        <v>157</v>
-      </c>
-      <c r="F13" s="30" t="s">
-        <v>158</v>
-      </c>
-      <c r="G13" s="30" t="s">
-        <v>159</v>
-      </c>
-      <c r="H13" s="30" t="s">
-        <v>113</v>
-      </c>
-      <c r="I13" s="30" t="s">
-        <v>160</v>
-      </c>
-      <c r="J13" s="63" t="s">
-        <v>50</v>
-      </c>
-      <c r="K13" s="64" t="s">
-        <v>161</v>
-      </c>
-      <c r="L13" s="30" t="s">
-        <v>162</v>
-      </c>
-      <c r="M13" s="30" t="s">
-        <v>90</v>
-      </c>
-      <c r="N13" s="30" t="s">
-        <v>163</v>
-      </c>
-      <c r="O13" s="79" t="s">
-        <v>164</v>
-      </c>
-      <c r="P13" s="30" t="s">
-        <v>165</v>
-      </c>
-      <c r="Q13" s="63" t="s">
+      <c r="K14" s="28"/>
+      <c r="L14" s="26"/>
+      <c r="M14" s="26"/>
+      <c r="N14" s="26"/>
+      <c r="O14" s="26"/>
+      <c r="P14" s="26"/>
+      <c r="Q14" s="27"/>
+      <c r="R14" s="51" t="s">
+        <v>38</v>
+      </c>
+      <c r="S14" s="28" t="s">
+        <v>193</v>
+      </c>
+      <c r="T14" s="26" t="s">
+        <v>194</v>
+      </c>
+      <c r="U14" s="26"/>
+      <c r="V14" s="26"/>
+      <c r="W14" s="26"/>
+      <c r="X14" s="26" t="s">
+        <v>195</v>
+      </c>
+      <c r="Y14" s="66" t="s">
+        <v>196</v>
+      </c>
+      <c r="AA14" s="83"/>
+      <c r="AB14" s="94" t="s">
+        <v>197</v>
+      </c>
+      <c r="AC14" s="88"/>
+    </row>
+    <row r="15" spans="1:30" s="29" customFormat="1" ht="409.5">
+      <c r="A15" s="65" t="s">
+        <v>198</v>
+      </c>
+      <c r="B15" s="65" t="s">
+        <v>199</v>
+      </c>
+      <c r="C15" s="41" t="s">
+        <v>200</v>
+      </c>
+      <c r="D15" s="42">
+        <v>14</v>
+      </c>
+      <c r="E15" s="26" t="s">
+        <v>201</v>
+      </c>
+      <c r="F15" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="G15" s="26" t="s">
+        <v>202</v>
+      </c>
+      <c r="H15" s="26" t="s">
+        <v>203</v>
+      </c>
+      <c r="I15" s="26" t="s">
+        <v>204</v>
+      </c>
+      <c r="J15" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="K15" s="28" t="s">
+        <v>205</v>
+      </c>
+      <c r="L15" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="M15" s="26" t="s">
+        <v>203</v>
+      </c>
+      <c r="N15" s="26" t="s">
+        <v>206</v>
+      </c>
+      <c r="O15" s="61" t="s">
+        <v>207</v>
+      </c>
+      <c r="P15" s="26" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q15" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="R15" s="51" t="s">
+        <v>38</v>
+      </c>
+      <c r="S15" s="28" t="s">
+        <v>209</v>
+      </c>
+      <c r="T15" s="26"/>
+      <c r="U15" s="26"/>
+      <c r="V15" s="26"/>
+      <c r="W15" s="26"/>
+      <c r="X15" s="26" t="s">
+        <v>210</v>
+      </c>
+      <c r="Y15" s="79" t="s">
+        <v>211</v>
+      </c>
+      <c r="Z15" s="78" t="s">
+        <v>212</v>
+      </c>
+      <c r="AA15" s="83"/>
+      <c r="AB15" s="94" t="s">
+        <v>213</v>
+      </c>
+      <c r="AC15" s="88"/>
+    </row>
+    <row r="16" spans="1:30" s="29" customFormat="1" ht="75.75" customHeight="1" outlineLevel="1">
+      <c r="A16" s="65" t="s">
+        <v>198</v>
+      </c>
+      <c r="B16" s="65" t="s">
+        <v>199</v>
+      </c>
+      <c r="C16" s="41" t="s">
+        <v>214</v>
+      </c>
+      <c r="D16" s="42">
+        <v>15</v>
+      </c>
+      <c r="E16" s="26" t="s">
+        <v>215</v>
+      </c>
+      <c r="F16" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="G16" s="26" t="s">
+        <v>216</v>
+      </c>
+      <c r="H16" s="26" t="s">
+        <v>217</v>
+      </c>
+      <c r="I16" s="26" t="s">
+        <v>218</v>
+      </c>
+      <c r="J16" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="K16" s="28" t="s">
+        <v>219</v>
+      </c>
+      <c r="L16" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="R13" s="40" t="s">
-        <v>80</v>
-      </c>
-      <c r="S13" s="64" t="s">
-        <v>166</v>
-      </c>
-      <c r="T13" s="30" t="s">
-        <v>167</v>
-      </c>
-      <c r="U13" s="30"/>
-      <c r="V13" s="20" t="s">
-        <v>168</v>
-      </c>
-      <c r="W13" s="20"/>
-      <c r="X13" s="20" t="s">
-        <v>169</v>
-      </c>
-      <c r="Y13" s="54" t="s">
-        <v>36</v>
-      </c>
+      <c r="M16" s="26" t="s">
+        <v>217</v>
+      </c>
+      <c r="N16" s="26" t="s">
+        <v>220</v>
+      </c>
+      <c r="O16" s="61" t="s">
+        <v>221</v>
+      </c>
+      <c r="P16" s="26" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q16" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="R16" s="51" t="s">
+        <v>38</v>
+      </c>
+      <c r="S16" s="28" t="s">
+        <v>223</v>
+      </c>
+      <c r="T16" s="26"/>
+      <c r="U16" s="26"/>
+      <c r="V16" s="26" t="s">
+        <v>224</v>
+      </c>
+      <c r="W16" s="26"/>
+      <c r="X16" s="26" t="s">
+        <v>225</v>
+      </c>
+      <c r="Y16" s="79" t="s">
+        <v>226</v>
+      </c>
+      <c r="Z16" s="78" t="s">
+        <v>227</v>
+      </c>
+      <c r="AA16" s="83"/>
+      <c r="AB16" s="94" t="s">
+        <v>213</v>
+      </c>
+      <c r="AC16" s="88"/>
     </row>
-    <row r="14" spans="1:25" s="31" customFormat="1" ht="96.75">
-      <c r="A14" s="49" t="s">
-        <v>170</v>
-      </c>
-      <c r="B14" s="49" t="s">
-        <v>73</v>
-      </c>
-      <c r="C14" s="60" t="s">
-        <v>171</v>
-      </c>
-      <c r="D14" s="61">
-        <v>13</v>
-      </c>
-      <c r="E14" s="30" t="s">
-        <v>172</v>
-      </c>
-      <c r="F14" s="30" t="s">
-        <v>173</v>
-      </c>
-      <c r="G14" s="30" t="s">
-        <v>174</v>
-      </c>
-      <c r="H14" s="30" t="s">
-        <v>175</v>
-      </c>
-      <c r="I14" s="30" t="s">
-        <v>176</v>
-      </c>
-      <c r="J14" s="63" t="s">
-        <v>50</v>
-      </c>
-      <c r="K14" s="64"/>
-      <c r="L14" s="30"/>
-      <c r="M14" s="30"/>
-      <c r="N14" s="30"/>
-      <c r="O14" s="30"/>
-      <c r="P14" s="30"/>
-      <c r="Q14" s="63"/>
-      <c r="R14" s="40" t="s">
-        <v>80</v>
-      </c>
-      <c r="S14" s="64" t="s">
-        <v>177</v>
-      </c>
-      <c r="T14" s="30" t="s">
-        <v>178</v>
-      </c>
-      <c r="U14" s="30"/>
-      <c r="V14" s="20"/>
-      <c r="W14" s="20"/>
-      <c r="X14" s="20" t="s">
-        <v>179</v>
-      </c>
-      <c r="Y14" s="54" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="15" spans="1:25" s="29" customFormat="1" ht="76.5">
-      <c r="A15" s="44" t="s">
-        <v>181</v>
-      </c>
-      <c r="B15" s="44" t="s">
-        <v>182</v>
-      </c>
-      <c r="C15" s="69" t="s">
-        <v>183</v>
-      </c>
-      <c r="D15" s="70">
-        <v>14</v>
-      </c>
-      <c r="E15" s="32" t="s">
-        <v>184</v>
-      </c>
-      <c r="F15" s="32" t="s">
-        <v>58</v>
-      </c>
-      <c r="G15" s="32" t="s">
-        <v>185</v>
-      </c>
-      <c r="H15" s="32" t="s">
-        <v>186</v>
-      </c>
-      <c r="I15" s="32" t="s">
-        <v>187</v>
-      </c>
-      <c r="J15" s="71" t="s">
-        <v>50</v>
-      </c>
-      <c r="K15" s="72" t="s">
-        <v>188</v>
-      </c>
-      <c r="L15" s="32" t="s">
-        <v>58</v>
-      </c>
-      <c r="M15" s="32" t="s">
-        <v>186</v>
-      </c>
-      <c r="N15" s="32" t="s">
-        <v>189</v>
-      </c>
-      <c r="O15" s="83" t="s">
-        <v>190</v>
-      </c>
-      <c r="P15" s="32" t="s">
-        <v>191</v>
-      </c>
-      <c r="Q15" s="71" t="s">
-        <v>66</v>
-      </c>
-      <c r="R15" s="41" t="s">
-        <v>107</v>
-      </c>
-      <c r="S15" s="72" t="s">
-        <v>192</v>
-      </c>
-      <c r="T15" s="32"/>
-      <c r="U15" s="32"/>
-      <c r="V15" s="16"/>
-      <c r="W15" s="16"/>
-      <c r="X15" s="16" t="s">
-        <v>193</v>
-      </c>
-      <c r="Y15" s="66" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="16" spans="1:25" s="29" customFormat="1" ht="75.75" customHeight="1" outlineLevel="1">
-      <c r="A16" s="44" t="s">
-        <v>181</v>
-      </c>
-      <c r="B16" s="44" t="s">
-        <v>182</v>
-      </c>
-      <c r="C16" s="69" t="s">
-        <v>195</v>
-      </c>
-      <c r="D16" s="70">
-        <v>15</v>
-      </c>
-      <c r="E16" s="32" t="s">
-        <v>196</v>
-      </c>
-      <c r="F16" s="32" t="s">
-        <v>58</v>
-      </c>
-      <c r="G16" s="32" t="s">
-        <v>197</v>
-      </c>
-      <c r="H16" s="32" t="s">
-        <v>198</v>
-      </c>
-      <c r="I16" s="32" t="s">
-        <v>199</v>
-      </c>
-      <c r="J16" s="71" t="s">
-        <v>50</v>
-      </c>
-      <c r="K16" s="72" t="s">
-        <v>200</v>
-      </c>
-      <c r="L16" s="32" t="s">
+    <row r="17" spans="1:29" s="21" customFormat="1" ht="236.25" outlineLevel="1">
+      <c r="A17" s="40" t="s">
+        <v>79</v>
+      </c>
+      <c r="B17" s="40" t="s">
+        <v>228</v>
+      </c>
+      <c r="C17" s="46" t="s">
+        <v>229</v>
+      </c>
+      <c r="D17" s="47">
+        <v>16</v>
+      </c>
+      <c r="E17" s="20" t="s">
+        <v>230</v>
+      </c>
+      <c r="F17" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="M16" s="32" t="s">
-        <v>198</v>
-      </c>
-      <c r="N16" s="32" t="s">
-        <v>201</v>
-      </c>
-      <c r="O16" s="83" t="s">
-        <v>202</v>
-      </c>
-      <c r="P16" s="32" t="s">
-        <v>203</v>
-      </c>
-      <c r="Q16" s="71" t="s">
-        <v>50</v>
-      </c>
-      <c r="R16" s="41" t="s">
-        <v>107</v>
-      </c>
-      <c r="S16" s="72" t="s">
-        <v>204</v>
-      </c>
-      <c r="T16" s="32"/>
-      <c r="U16" s="32"/>
-      <c r="V16" s="16" t="s">
-        <v>205</v>
-      </c>
-      <c r="W16" s="16"/>
-      <c r="X16" s="16" t="s">
-        <v>206</v>
-      </c>
-      <c r="Y16" s="66" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="17" spans="1:25" s="21" customFormat="1" ht="194.25" outlineLevel="1">
-      <c r="A17" s="44" t="s">
-        <v>72</v>
-      </c>
-      <c r="B17" s="44" t="s">
-        <v>208</v>
-      </c>
-      <c r="C17" s="50" t="s">
-        <v>209</v>
-      </c>
-      <c r="D17" s="51">
-        <v>16</v>
-      </c>
-      <c r="E17" s="20" t="s">
-        <v>210</v>
-      </c>
-      <c r="F17" s="20" t="s">
-        <v>58</v>
-      </c>
       <c r="G17" s="20" t="s">
-        <v>211</v>
+        <v>231</v>
       </c>
       <c r="H17" s="20" t="s">
-        <v>212</v>
+        <v>232</v>
       </c>
       <c r="I17" s="20" t="s">
-        <v>213</v>
-      </c>
-      <c r="J17" s="52" t="s">
-        <v>50</v>
-      </c>
-      <c r="K17" s="53" t="s">
-        <v>214</v>
+        <v>233</v>
+      </c>
+      <c r="J17" s="48" t="s">
+        <v>54</v>
+      </c>
+      <c r="K17" s="49" t="s">
+        <v>234</v>
       </c>
       <c r="L17" s="20" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="M17" s="20" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="N17" s="20" t="s">
-        <v>217</v>
-      </c>
-      <c r="O17" s="76" t="s">
-        <v>218</v>
+        <v>237</v>
+      </c>
+      <c r="O17" s="60" t="s">
+        <v>238</v>
       </c>
       <c r="P17" s="20" t="s">
-        <v>219</v>
-      </c>
-      <c r="Q17" s="52" t="s">
-        <v>66</v>
-      </c>
-      <c r="R17" s="39" t="s">
-        <v>67</v>
-      </c>
-      <c r="S17" s="53" t="s">
-        <v>220</v>
+        <v>239</v>
+      </c>
+      <c r="Q17" s="48" t="s">
+        <v>70</v>
+      </c>
+      <c r="R17" s="35" t="s">
+        <v>240</v>
+      </c>
+      <c r="S17" s="49" t="s">
+        <v>241</v>
       </c>
       <c r="T17" s="20" t="s">
-        <v>221</v>
-      </c>
-      <c r="U17" s="20"/>
+        <v>242</v>
+      </c>
+      <c r="U17" s="63" t="s">
+        <v>243</v>
+      </c>
       <c r="V17" s="16" t="s">
-        <v>222</v>
+        <v>244</v>
       </c>
       <c r="W17" s="16"/>
       <c r="X17" s="16" t="s">
-        <v>223</v>
+        <v>245</v>
       </c>
       <c r="Y17" s="17" t="s">
-        <v>36</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="AA17" s="85"/>
+      <c r="AB17" s="95"/>
+      <c r="AC17" s="89"/>
     </row>
-    <row r="18" spans="1:25" s="21" customFormat="1" ht="81" outlineLevel="1">
-      <c r="A18" s="44" t="s">
-        <v>72</v>
-      </c>
-      <c r="B18" s="44" t="s">
-        <v>208</v>
-      </c>
-      <c r="C18" s="50" t="s">
-        <v>224</v>
-      </c>
-      <c r="D18" s="51">
+    <row r="18" spans="1:29" s="21" customFormat="1" ht="128.25" customHeight="1" outlineLevel="1">
+      <c r="A18" s="40" t="s">
+        <v>79</v>
+      </c>
+      <c r="B18" s="40" t="s">
+        <v>228</v>
+      </c>
+      <c r="C18" s="46" t="s">
+        <v>246</v>
+      </c>
+      <c r="D18" s="47">
         <v>17</v>
       </c>
       <c r="E18" s="20" t="s">
-        <v>225</v>
+        <v>247</v>
       </c>
       <c r="F18" s="20" t="s">
-        <v>226</v>
+        <v>248</v>
       </c>
       <c r="G18" s="20" t="s">
-        <v>227</v>
+        <v>249</v>
       </c>
       <c r="H18" s="20" t="s">
-        <v>228</v>
+        <v>250</v>
       </c>
       <c r="I18" s="20" t="s">
-        <v>229</v>
-      </c>
-      <c r="J18" s="52" t="s">
-        <v>230</v>
-      </c>
-      <c r="K18" s="53" t="s">
-        <v>231</v>
+        <v>251</v>
+      </c>
+      <c r="J18" s="48" t="s">
+        <v>252</v>
+      </c>
+      <c r="K18" s="49" t="s">
+        <v>253</v>
       </c>
       <c r="L18" s="20" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="M18" s="20" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="N18" s="20" t="s">
-        <v>232</v>
-      </c>
-      <c r="O18" s="76" t="s">
-        <v>233</v>
+        <v>254</v>
+      </c>
+      <c r="O18" s="60" t="s">
+        <v>255</v>
       </c>
       <c r="P18" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="Q18" s="52" t="s">
-        <v>66</v>
-      </c>
-      <c r="R18" s="39" t="s">
-        <v>67</v>
-      </c>
-      <c r="S18" s="53" t="s">
-        <v>220</v>
+        <v>256</v>
+      </c>
+      <c r="Q18" s="48" t="s">
+        <v>70</v>
+      </c>
+      <c r="R18" s="35" t="s">
+        <v>240</v>
+      </c>
+      <c r="S18" s="49" t="s">
+        <v>241</v>
       </c>
       <c r="T18" s="20" t="s">
-        <v>235</v>
-      </c>
-      <c r="U18" s="20"/>
+        <v>257</v>
+      </c>
+      <c r="U18" s="63" t="s">
+        <v>258</v>
+      </c>
       <c r="V18" s="16" t="s">
-        <v>236</v>
+        <v>259</v>
       </c>
       <c r="W18" s="16"/>
       <c r="X18" s="16" t="s">
-        <v>237</v>
+        <v>260</v>
       </c>
       <c r="Y18" s="17" t="s">
-        <v>36</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="AA18" s="85"/>
+      <c r="AB18" s="95"/>
+      <c r="AC18" s="89"/>
     </row>
-    <row r="19" spans="1:25" s="21" customFormat="1" ht="324" outlineLevel="1">
-      <c r="A19" s="44" t="s">
-        <v>72</v>
-      </c>
-      <c r="B19" s="44" t="s">
-        <v>208</v>
-      </c>
-      <c r="C19" s="50" t="s">
-        <v>238</v>
-      </c>
-      <c r="D19" s="51">
+    <row r="19" spans="1:29" s="21" customFormat="1" ht="330.75" outlineLevel="1">
+      <c r="A19" s="40" t="s">
+        <v>79</v>
+      </c>
+      <c r="B19" s="40" t="s">
+        <v>228</v>
+      </c>
+      <c r="C19" s="46" t="s">
+        <v>261</v>
+      </c>
+      <c r="D19" s="47">
         <v>18</v>
       </c>
       <c r="E19" s="20" t="s">
-        <v>239</v>
+        <v>262</v>
       </c>
       <c r="F19" s="20" t="s">
-        <v>226</v>
+        <v>248</v>
       </c>
       <c r="G19" s="20" t="s">
+        <v>263</v>
+      </c>
+      <c r="H19" s="20" t="s">
+        <v>232</v>
+      </c>
+      <c r="I19" s="20" t="s">
+        <v>264</v>
+      </c>
+      <c r="J19" s="48" t="s">
+        <v>252</v>
+      </c>
+      <c r="K19" s="49" t="s">
+        <v>265</v>
+      </c>
+      <c r="L19" s="20" t="s">
+        <v>235</v>
+      </c>
+      <c r="M19" s="20" t="s">
+        <v>236</v>
+      </c>
+      <c r="N19" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="O19" s="60" t="s">
+        <v>267</v>
+      </c>
+      <c r="P19" s="20" t="s">
+        <v>268</v>
+      </c>
+      <c r="Q19" s="48" t="s">
+        <v>70</v>
+      </c>
+      <c r="R19" s="35" t="s">
         <v>240</v>
       </c>
-      <c r="H19" s="20" t="s">
-        <v>212</v>
-      </c>
-      <c r="I19" s="20" t="s">
+      <c r="S19" s="49" t="s">
         <v>241</v>
       </c>
-      <c r="J19" s="52" t="s">
-        <v>230</v>
-      </c>
-      <c r="K19" s="53" t="s">
-        <v>242</v>
-      </c>
-      <c r="L19" s="20" t="s">
-        <v>215</v>
-      </c>
-      <c r="M19" s="20" t="s">
-        <v>216</v>
-      </c>
-      <c r="N19" s="20" t="s">
-        <v>243</v>
-      </c>
-      <c r="O19" s="76" t="s">
-        <v>244</v>
-      </c>
-      <c r="P19" s="20" t="s">
-        <v>245</v>
-      </c>
-      <c r="Q19" s="52" t="s">
-        <v>66</v>
-      </c>
-      <c r="R19" s="39" t="s">
-        <v>67</v>
-      </c>
-      <c r="S19" s="53" t="s">
-        <v>220</v>
-      </c>
       <c r="T19" s="20" t="s">
-        <v>235</v>
-      </c>
-      <c r="U19" s="20"/>
+        <v>257</v>
+      </c>
+      <c r="U19" s="63" t="s">
+        <v>269</v>
+      </c>
       <c r="V19" s="16" t="s">
-        <v>246</v>
+        <v>270</v>
       </c>
       <c r="W19" s="16"/>
       <c r="X19" s="16" t="s">
-        <v>247</v>
+        <v>271</v>
       </c>
       <c r="Y19" s="17" t="s">
-        <v>36</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="AA19" s="85"/>
+      <c r="AB19" s="95"/>
+      <c r="AC19" s="89"/>
     </row>
-    <row r="20" spans="1:25" s="21" customFormat="1" ht="81" outlineLevel="1">
-      <c r="A20" s="44" t="s">
-        <v>72</v>
-      </c>
-      <c r="B20" s="44" t="s">
-        <v>208</v>
-      </c>
-      <c r="C20" s="50" t="s">
+    <row r="20" spans="1:29" s="21" customFormat="1" ht="236.25" outlineLevel="1">
+      <c r="A20" s="40" t="s">
+        <v>79</v>
+      </c>
+      <c r="B20" s="40" t="s">
+        <v>228</v>
+      </c>
+      <c r="C20" s="46" t="s">
+        <v>272</v>
+      </c>
+      <c r="D20" s="47">
+        <v>19</v>
+      </c>
+      <c r="E20" s="20" t="s">
+        <v>273</v>
+      </c>
+      <c r="F20" s="20" t="s">
         <v>248</v>
       </c>
-      <c r="D20" s="51">
-        <v>19</v>
-      </c>
-      <c r="E20" s="20" t="s">
-        <v>249</v>
-      </c>
-      <c r="F20" s="20" t="s">
-        <v>226</v>
-      </c>
       <c r="G20" s="20" t="s">
-        <v>250</v>
+        <v>274</v>
       </c>
       <c r="H20" s="20" t="s">
-        <v>251</v>
+        <v>275</v>
       </c>
       <c r="I20" s="20" t="s">
+        <v>276</v>
+      </c>
+      <c r="J20" s="48" t="s">
         <v>252</v>
       </c>
-      <c r="J20" s="52" t="s">
-        <v>230</v>
-      </c>
-      <c r="K20" s="53" t="s">
-        <v>253</v>
+      <c r="K20" s="49" t="s">
+        <v>277</v>
       </c>
       <c r="L20" s="20" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="M20" s="20" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="N20" s="20" t="s">
-        <v>254</v>
-      </c>
-      <c r="O20" s="76" t="s">
-        <v>255</v>
+        <v>278</v>
+      </c>
+      <c r="O20" s="60" t="s">
+        <v>279</v>
       </c>
       <c r="P20" s="20" t="s">
-        <v>256</v>
-      </c>
-      <c r="Q20" s="52" t="s">
-        <v>66</v>
-      </c>
-      <c r="R20" s="39" t="s">
-        <v>67</v>
-      </c>
-      <c r="S20" s="53" t="s">
-        <v>220</v>
+        <v>280</v>
+      </c>
+      <c r="Q20" s="48" t="s">
+        <v>70</v>
+      </c>
+      <c r="R20" s="35" t="s">
+        <v>240</v>
+      </c>
+      <c r="S20" s="49" t="s">
+        <v>241</v>
       </c>
       <c r="T20" s="20" t="s">
-        <v>235</v>
-      </c>
-      <c r="U20" s="20"/>
+        <v>257</v>
+      </c>
+      <c r="U20" s="63" t="s">
+        <v>258</v>
+      </c>
       <c r="V20" s="16" t="s">
-        <v>257</v>
+        <v>281</v>
       </c>
       <c r="W20" s="16"/>
       <c r="X20" s="16" t="s">
-        <v>258</v>
+        <v>282</v>
       </c>
       <c r="Y20" s="17" t="s">
-        <v>36</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="AA20" s="85"/>
+      <c r="AB20" s="95"/>
+      <c r="AC20" s="89"/>
     </row>
-    <row r="21" spans="1:25" s="21" customFormat="1" ht="129" outlineLevel="1">
-      <c r="A21" s="44" t="s">
-        <v>54</v>
-      </c>
-      <c r="B21" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="C21" s="45" t="s">
-        <v>259</v>
-      </c>
-      <c r="D21" s="46">
+    <row r="21" spans="1:29" s="29" customFormat="1" ht="409.5" outlineLevel="1">
+      <c r="A21" s="40" t="s">
+        <v>58</v>
+      </c>
+      <c r="B21" s="40" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" s="41" t="s">
+        <v>283</v>
+      </c>
+      <c r="D21" s="42">
         <v>20</v>
       </c>
       <c r="E21" s="26" t="s">
-        <v>260</v>
+        <v>284</v>
       </c>
       <c r="F21" s="26" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="G21" s="26" t="s">
-        <v>261</v>
+        <v>285</v>
       </c>
       <c r="H21" s="26" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="I21" s="26" t="s">
-        <v>262</v>
+        <v>286</v>
       </c>
       <c r="J21" s="27" t="s">
-        <v>230</v>
+        <v>252</v>
       </c>
       <c r="K21" s="28" t="s">
-        <v>263</v>
+        <v>287</v>
       </c>
       <c r="L21" s="26" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="M21" s="26" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="N21" s="26" t="s">
-        <v>264</v>
-      </c>
-      <c r="O21" s="77" t="s">
-        <v>265</v>
+        <v>288</v>
+      </c>
+      <c r="O21" s="61" t="s">
+        <v>289</v>
       </c>
       <c r="P21" s="26" t="s">
-        <v>266</v>
+        <v>290</v>
       </c>
       <c r="Q21" s="27" t="s">
-        <v>66</v>
-      </c>
-      <c r="R21" s="55" t="s">
-        <v>34</v>
+        <v>70</v>
+      </c>
+      <c r="R21" s="51" t="s">
+        <v>38</v>
       </c>
       <c r="S21" s="28" t="s">
-        <v>267</v>
+        <v>291</v>
       </c>
       <c r="T21" s="26" t="s">
-        <v>268</v>
+        <v>292</v>
       </c>
       <c r="U21" s="26"/>
       <c r="V21" s="16"/>
       <c r="W21" s="16" t="s">
-        <v>269</v>
+        <v>293</v>
       </c>
       <c r="X21" s="16" t="s">
-        <v>270</v>
-      </c>
-      <c r="Y21" s="66" t="s">
-        <v>271</v>
-      </c>
+        <v>294</v>
+      </c>
+      <c r="Y21" s="56" t="s">
+        <v>295</v>
+      </c>
+      <c r="AA21" s="83"/>
+      <c r="AB21" s="93"/>
+      <c r="AC21" s="88"/>
     </row>
-    <row r="22" spans="1:25" s="33" customFormat="1" ht="81" outlineLevel="1">
-      <c r="A22" s="44" t="s">
-        <v>72</v>
-      </c>
-      <c r="B22" s="44" t="s">
-        <v>208</v>
-      </c>
-      <c r="C22" s="69" t="s">
-        <v>272</v>
-      </c>
-      <c r="D22" s="70">
+    <row r="22" spans="1:29" s="21" customFormat="1" ht="173.25" outlineLevel="1">
+      <c r="A22" s="45" t="s">
+        <v>79</v>
+      </c>
+      <c r="B22" s="45" t="s">
+        <v>228</v>
+      </c>
+      <c r="C22" s="46" t="s">
+        <v>296</v>
+      </c>
+      <c r="D22" s="47">
         <v>21</v>
       </c>
-      <c r="E22" s="32" t="s">
-        <v>273</v>
-      </c>
-      <c r="F22" s="32" t="s">
-        <v>103</v>
-      </c>
-      <c r="G22" s="32" t="s">
-        <v>274</v>
-      </c>
-      <c r="H22" s="32" t="s">
-        <v>212</v>
-      </c>
-      <c r="I22" s="32" t="s">
-        <v>106</v>
-      </c>
-      <c r="J22" s="71" t="s">
-        <v>230</v>
-      </c>
-      <c r="K22" s="72" t="s">
-        <v>275</v>
-      </c>
-      <c r="L22" s="32" t="s">
-        <v>276</v>
-      </c>
-      <c r="M22" s="32" t="s">
-        <v>216</v>
-      </c>
-      <c r="N22" s="32" t="s">
-        <v>277</v>
-      </c>
-      <c r="O22" s="83" t="s">
-        <v>278</v>
-      </c>
-      <c r="P22" s="32" t="s">
-        <v>279</v>
-      </c>
-      <c r="Q22" s="71" t="s">
-        <v>66</v>
-      </c>
-      <c r="R22" s="41" t="s">
-        <v>107</v>
-      </c>
-      <c r="S22" s="72" t="s">
-        <v>280</v>
-      </c>
-      <c r="T22" s="32"/>
-      <c r="U22" s="32"/>
-      <c r="V22" s="16" t="s">
-        <v>281</v>
-      </c>
-      <c r="W22" s="16"/>
-      <c r="X22" s="16" t="s">
-        <v>282</v>
-      </c>
-      <c r="Y22" s="17"/>
+      <c r="E22" s="20" t="s">
+        <v>297</v>
+      </c>
+      <c r="F22" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="G22" s="20" t="s">
+        <v>298</v>
+      </c>
+      <c r="H22" s="20" t="s">
+        <v>232</v>
+      </c>
+      <c r="I22" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="J22" s="48" t="s">
+        <v>252</v>
+      </c>
+      <c r="K22" s="49" t="s">
+        <v>299</v>
+      </c>
+      <c r="L22" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="M22" s="20" t="s">
+        <v>236</v>
+      </c>
+      <c r="N22" s="20" t="s">
+        <v>301</v>
+      </c>
+      <c r="O22" s="60" t="s">
+        <v>302</v>
+      </c>
+      <c r="P22" s="20" t="s">
+        <v>303</v>
+      </c>
+      <c r="Q22" s="48" t="s">
+        <v>70</v>
+      </c>
+      <c r="R22" s="35" t="s">
+        <v>240</v>
+      </c>
+      <c r="S22" s="49" t="s">
+        <v>304</v>
+      </c>
+      <c r="T22" s="20"/>
+      <c r="U22" s="20"/>
+      <c r="V22" s="20" t="s">
+        <v>305</v>
+      </c>
+      <c r="W22" s="20"/>
+      <c r="X22" s="20" t="s">
+        <v>306</v>
+      </c>
+      <c r="Y22" s="50"/>
+      <c r="AA22" s="85"/>
+      <c r="AB22" s="97" t="s">
+        <v>307</v>
+      </c>
+      <c r="AC22" s="89"/>
     </row>
-    <row r="23" spans="1:25" s="21" customFormat="1" ht="129" outlineLevel="1">
-      <c r="A23" s="44" t="s">
-        <v>54</v>
-      </c>
-      <c r="B23" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="C23" s="45" t="s">
-        <v>283</v>
-      </c>
-      <c r="D23" s="46">
+    <row r="23" spans="1:29" s="29" customFormat="1" ht="409.5" outlineLevel="1">
+      <c r="A23" s="40" t="s">
+        <v>58</v>
+      </c>
+      <c r="B23" s="40" t="s">
+        <v>59</v>
+      </c>
+      <c r="C23" s="41" t="s">
+        <v>308</v>
+      </c>
+      <c r="D23" s="42">
         <v>22</v>
       </c>
       <c r="E23" s="26" t="s">
-        <v>284</v>
+        <v>309</v>
       </c>
       <c r="F23" s="26" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="G23" s="26" t="s">
-        <v>285</v>
+        <v>310</v>
       </c>
       <c r="H23" s="26" t="s">
-        <v>286</v>
+        <v>311</v>
       </c>
       <c r="I23" s="26" t="s">
-        <v>287</v>
+        <v>312</v>
       </c>
       <c r="J23" s="27" t="s">
-        <v>230</v>
+        <v>252</v>
       </c>
       <c r="K23" s="28" t="s">
-        <v>288</v>
+        <v>313</v>
       </c>
       <c r="L23" s="26" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="M23" s="26" t="s">
-        <v>289</v>
+        <v>314</v>
       </c>
       <c r="N23" s="26" t="s">
-        <v>290</v>
-      </c>
-      <c r="O23" s="77" t="s">
-        <v>291</v>
+        <v>315</v>
+      </c>
+      <c r="O23" s="61" t="s">
+        <v>316</v>
       </c>
       <c r="P23" s="26" t="s">
-        <v>292</v>
+        <v>317</v>
       </c>
       <c r="Q23" s="27" t="s">
-        <v>66</v>
-      </c>
-      <c r="R23" s="55" t="s">
-        <v>34</v>
-      </c>
-      <c r="S23" s="67" t="s">
-        <v>293</v>
-      </c>
-      <c r="T23" s="68" t="s">
-        <v>294</v>
+        <v>70</v>
+      </c>
+      <c r="R23" s="51" t="s">
+        <v>38</v>
+      </c>
+      <c r="S23" s="57" t="s">
+        <v>318</v>
+      </c>
+      <c r="T23" s="58" t="s">
+        <v>319</v>
       </c>
       <c r="U23" s="26"/>
       <c r="V23" s="16" t="s">
-        <v>295</v>
+        <v>320</v>
       </c>
       <c r="W23" s="16"/>
       <c r="X23" s="16" t="s">
-        <v>296</v>
+        <v>321</v>
       </c>
       <c r="Y23" s="17" t="s">
-        <v>297</v>
-      </c>
+        <v>322</v>
+      </c>
+      <c r="AA23" s="83"/>
+      <c r="AB23" s="93"/>
+      <c r="AC23" s="88"/>
     </row>
-    <row r="24" spans="1:25" s="33" customFormat="1" ht="162" outlineLevel="1">
-      <c r="A24" s="44" t="s">
+    <row r="24" spans="1:29" s="29" customFormat="1" ht="409.5" outlineLevel="1">
+      <c r="A24" s="65" t="s">
+        <v>58</v>
+      </c>
+      <c r="B24" s="65" t="s">
+        <v>59</v>
+      </c>
+      <c r="C24" s="41" t="s">
+        <v>323</v>
+      </c>
+      <c r="D24" s="42">
+        <v>23</v>
+      </c>
+      <c r="E24" s="26" t="s">
+        <v>324</v>
+      </c>
+      <c r="F24" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="G24" s="26" t="s">
+        <v>325</v>
+      </c>
+      <c r="H24" s="26" t="s">
+        <v>326</v>
+      </c>
+      <c r="I24" s="26" t="s">
+        <v>327</v>
+      </c>
+      <c r="J24" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="B24" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="C24" s="50" t="s">
-        <v>298</v>
-      </c>
-      <c r="D24" s="51">
-        <v>23</v>
-      </c>
-      <c r="E24" s="20" t="s">
-        <v>299</v>
-      </c>
-      <c r="F24" s="20" t="s">
-        <v>112</v>
-      </c>
-      <c r="G24" s="20" t="s">
-        <v>300</v>
-      </c>
-      <c r="H24" s="20" t="s">
-        <v>301</v>
-      </c>
-      <c r="I24" s="20" t="s">
-        <v>302</v>
-      </c>
-      <c r="J24" s="52" t="s">
-        <v>50</v>
-      </c>
-      <c r="K24" s="53" t="s">
-        <v>303</v>
-      </c>
-      <c r="L24" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="M24" s="20" t="s">
-        <v>301</v>
-      </c>
-      <c r="N24" s="20" t="s">
-        <v>304</v>
-      </c>
-      <c r="O24" s="76" t="s">
-        <v>305</v>
-      </c>
-      <c r="P24" s="20"/>
-      <c r="Q24" s="52" t="s">
+      <c r="K24" s="28" t="s">
+        <v>328</v>
+      </c>
+      <c r="L24" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="R24" s="39" t="s">
-        <v>67</v>
-      </c>
-      <c r="S24" s="53" t="s">
-        <v>306</v>
-      </c>
-      <c r="T24" s="20" t="s">
-        <v>307</v>
-      </c>
-      <c r="U24" s="20"/>
-      <c r="V24" s="16"/>
-      <c r="W24" s="16"/>
-      <c r="X24" s="16" t="s">
-        <v>308</v>
-      </c>
-      <c r="Y24" s="17" t="s">
-        <v>309</v>
-      </c>
+      <c r="M24" s="26" t="s">
+        <v>326</v>
+      </c>
+      <c r="N24" s="26" t="s">
+        <v>329</v>
+      </c>
+      <c r="O24" s="61" t="s">
+        <v>330</v>
+      </c>
+      <c r="P24" s="26"/>
+      <c r="Q24" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="R24" s="51" t="s">
+        <v>38</v>
+      </c>
+      <c r="S24" s="28" t="s">
+        <v>331</v>
+      </c>
+      <c r="T24" s="26" t="s">
+        <v>332</v>
+      </c>
+      <c r="U24" s="26"/>
+      <c r="V24" s="26"/>
+      <c r="W24" s="26"/>
+      <c r="X24" s="26" t="s">
+        <v>333</v>
+      </c>
+      <c r="Y24" s="66" t="s">
+        <v>334</v>
+      </c>
+      <c r="AA24" s="83"/>
+      <c r="AB24" s="93"/>
+      <c r="AC24" s="88"/>
     </row>
-    <row r="25" spans="1:25" s="29" customFormat="1" ht="96.75" outlineLevel="1">
-      <c r="A25" s="44" t="s">
-        <v>29</v>
-      </c>
-      <c r="B25" s="44" t="s">
-        <v>30</v>
-      </c>
-      <c r="C25" s="45" t="s">
-        <v>310</v>
-      </c>
-      <c r="D25" s="46">
+    <row r="25" spans="1:29" s="29" customFormat="1" ht="110.25" outlineLevel="1">
+      <c r="A25" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" s="41" t="s">
+        <v>335</v>
+      </c>
+      <c r="D25" s="42">
         <v>24</v>
       </c>
       <c r="E25" s="26" t="s">
-        <v>311</v>
+        <v>336</v>
       </c>
       <c r="F25" s="26" t="s">
-        <v>312</v>
+        <v>337</v>
       </c>
       <c r="G25" s="26" t="s">
-        <v>313</v>
+        <v>338</v>
       </c>
       <c r="H25" s="26" t="s">
-        <v>301</v>
-      </c>
-      <c r="I25" s="59">
+        <v>326</v>
+      </c>
+      <c r="I25" s="54">
         <v>43428</v>
       </c>
       <c r="J25" s="27" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="K25" s="28" t="s">
-        <v>314</v>
+        <v>339</v>
       </c>
       <c r="L25" s="26" t="s">
-        <v>315</v>
+        <v>340</v>
       </c>
       <c r="M25" s="26" t="s">
-        <v>316</v>
+        <v>341</v>
       </c>
       <c r="N25" s="26" t="s">
-        <v>317</v>
-      </c>
-      <c r="O25" s="77" t="s">
-        <v>318</v>
+        <v>342</v>
+      </c>
+      <c r="O25" s="61" t="s">
+        <v>343</v>
       </c>
       <c r="P25" s="26" t="s">
-        <v>319</v>
+        <v>344</v>
       </c>
       <c r="Q25" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="R25" s="55" t="s">
-        <v>34</v>
+        <v>54</v>
+      </c>
+      <c r="R25" s="51" t="s">
+        <v>38</v>
       </c>
       <c r="S25" s="28"/>
       <c r="T25" s="26" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="U25" s="26"/>
       <c r="V25" s="16" t="s">
-        <v>320</v>
+        <v>345</v>
       </c>
       <c r="W25" s="16"/>
       <c r="X25" s="16" t="s">
-        <v>321</v>
+        <v>346</v>
       </c>
       <c r="Y25" s="17" t="s">
-        <v>53</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="AA25" s="83"/>
+      <c r="AB25" s="93"/>
+      <c r="AC25" s="88"/>
     </row>
-    <row r="26" spans="1:25" s="33" customFormat="1" ht="162" outlineLevel="1">
-      <c r="A26" s="44" t="s">
-        <v>322</v>
-      </c>
-      <c r="B26" s="44" t="s">
-        <v>208</v>
-      </c>
-      <c r="C26" s="50" t="s">
-        <v>323</v>
-      </c>
-      <c r="D26" s="51">
+    <row r="26" spans="1:29" s="21" customFormat="1" ht="173.25" outlineLevel="1">
+      <c r="A26" s="40" t="s">
+        <v>347</v>
+      </c>
+      <c r="B26" s="40" t="s">
+        <v>228</v>
+      </c>
+      <c r="C26" s="46" t="s">
+        <v>348</v>
+      </c>
+      <c r="D26" s="47">
         <v>25</v>
       </c>
       <c r="E26" s="20" t="s">
-        <v>324</v>
+        <v>349</v>
       </c>
       <c r="F26" s="20" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="G26" s="20" t="s">
-        <v>325</v>
+        <v>350</v>
       </c>
       <c r="H26" s="20" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="I26" s="20" t="s">
-        <v>326</v>
-      </c>
-      <c r="J26" s="52" t="s">
-        <v>50</v>
-      </c>
-      <c r="K26" s="53" t="s">
-        <v>327</v>
+        <v>351</v>
+      </c>
+      <c r="J26" s="48" t="s">
+        <v>54</v>
+      </c>
+      <c r="K26" s="49" t="s">
+        <v>352</v>
       </c>
       <c r="L26" s="20" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="M26" s="20" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="N26" s="20" t="s">
-        <v>328</v>
-      </c>
-      <c r="O26" s="76" t="s">
-        <v>329</v>
+        <v>353</v>
+      </c>
+      <c r="O26" s="60" t="s">
+        <v>354</v>
       </c>
       <c r="P26" s="20" t="s">
-        <v>330</v>
-      </c>
-      <c r="Q26" s="52" t="s">
-        <v>50</v>
-      </c>
-      <c r="R26" s="39" t="s">
-        <v>67</v>
-      </c>
-      <c r="S26" s="53" t="s">
-        <v>331</v>
+        <v>355</v>
+      </c>
+      <c r="Q26" s="48" t="s">
+        <v>54</v>
+      </c>
+      <c r="R26" s="35" t="s">
+        <v>240</v>
+      </c>
+      <c r="S26" s="49" t="s">
+        <v>356</v>
       </c>
       <c r="T26" s="20" t="s">
-        <v>332</v>
-      </c>
-      <c r="U26" s="20"/>
+        <v>357</v>
+      </c>
+      <c r="U26" s="63" t="s">
+        <v>358</v>
+      </c>
       <c r="V26" s="16" t="s">
-        <v>333</v>
+        <v>359</v>
       </c>
       <c r="W26" s="16"/>
       <c r="X26" s="16" t="s">
-        <v>331</v>
+        <v>356</v>
       </c>
       <c r="Y26" s="17" t="s">
-        <v>36</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="AA26" s="85"/>
+      <c r="AB26" s="95"/>
+      <c r="AC26" s="89"/>
     </row>
-    <row r="27" spans="1:25" s="33" customFormat="1" ht="48.75" outlineLevel="1">
-      <c r="A27" s="44" t="s">
-        <v>322</v>
-      </c>
-      <c r="B27" s="44" t="s">
-        <v>208</v>
-      </c>
-      <c r="C27" s="69" t="s">
-        <v>334</v>
-      </c>
-      <c r="D27" s="70">
+    <row r="27" spans="1:29" s="29" customFormat="1" ht="135" outlineLevel="1">
+      <c r="A27" s="65" t="s">
+        <v>347</v>
+      </c>
+      <c r="B27" s="65" t="s">
+        <v>228</v>
+      </c>
+      <c r="C27" s="41" t="s">
+        <v>360</v>
+      </c>
+      <c r="D27" s="42">
         <v>26</v>
       </c>
-      <c r="E27" s="32" t="s">
-        <v>335</v>
-      </c>
-      <c r="F27" s="32" t="s">
-        <v>103</v>
-      </c>
-      <c r="G27" s="32" t="s">
-        <v>336</v>
-      </c>
-      <c r="H27" s="32" t="s">
-        <v>105</v>
-      </c>
-      <c r="I27" s="32" t="s">
-        <v>337</v>
-      </c>
-      <c r="J27" s="71" t="s">
-        <v>50</v>
-      </c>
-      <c r="K27" s="72"/>
-      <c r="L27" s="32"/>
-      <c r="M27" s="32" t="s">
-        <v>105</v>
-      </c>
-      <c r="N27" s="32"/>
-      <c r="O27" s="32"/>
-      <c r="P27" s="32"/>
-      <c r="Q27" s="71"/>
-      <c r="R27" s="41" t="s">
-        <v>107</v>
-      </c>
-      <c r="S27" s="72" t="s">
-        <v>338</v>
-      </c>
-      <c r="T27" s="32"/>
-      <c r="U27" s="32"/>
-      <c r="V27" s="16"/>
-      <c r="W27" s="16"/>
-      <c r="X27" s="16"/>
-      <c r="Y27" s="17" t="s">
-        <v>36</v>
-      </c>
+      <c r="E27" s="26" t="s">
+        <v>361</v>
+      </c>
+      <c r="F27" s="26" t="s">
+        <v>116</v>
+      </c>
+      <c r="G27" s="26" t="s">
+        <v>362</v>
+      </c>
+      <c r="H27" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="I27" s="26" t="s">
+        <v>363</v>
+      </c>
+      <c r="J27" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="K27" s="28"/>
+      <c r="L27" s="26"/>
+      <c r="M27" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="N27" s="26"/>
+      <c r="O27" s="26"/>
+      <c r="P27" s="26"/>
+      <c r="Q27" s="27"/>
+      <c r="R27" s="51" t="s">
+        <v>38</v>
+      </c>
+      <c r="S27" s="28" t="s">
+        <v>364</v>
+      </c>
+      <c r="T27" s="26"/>
+      <c r="U27" s="26"/>
+      <c r="V27" s="26"/>
+      <c r="W27" s="26"/>
+      <c r="X27" s="26"/>
+      <c r="Y27" s="66" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z27" s="29" t="s">
+        <v>365</v>
+      </c>
+      <c r="AA27" s="83"/>
+      <c r="AB27" s="94" t="s">
+        <v>366</v>
+      </c>
+      <c r="AC27" s="88"/>
     </row>
-    <row r="28" spans="1:25" s="33" customFormat="1" ht="129" outlineLevel="1">
-      <c r="A28" s="44" t="s">
-        <v>322</v>
-      </c>
-      <c r="B28" s="44" t="s">
-        <v>208</v>
-      </c>
-      <c r="C28" s="45" t="s">
-        <v>339</v>
-      </c>
-      <c r="D28" s="46">
+    <row r="28" spans="1:29" s="29" customFormat="1" ht="126" outlineLevel="1">
+      <c r="A28" s="40" t="s">
+        <v>347</v>
+      </c>
+      <c r="B28" s="40" t="s">
+        <v>228</v>
+      </c>
+      <c r="C28" s="41" t="s">
+        <v>367</v>
+      </c>
+      <c r="D28" s="42">
         <v>27</v>
       </c>
       <c r="E28" s="26" t="s">
-        <v>340</v>
+        <v>368</v>
       </c>
       <c r="F28" s="26" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="G28" s="26" t="s">
-        <v>341</v>
+        <v>369</v>
       </c>
       <c r="H28" s="26" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="I28" s="26" t="s">
-        <v>342</v>
+        <v>370</v>
       </c>
       <c r="J28" s="27" t="s">
-        <v>230</v>
+        <v>252</v>
       </c>
       <c r="K28" s="28"/>
       <c r="L28" s="26"/>
       <c r="M28" s="26" t="s">
-        <v>343</v>
+        <v>371</v>
       </c>
       <c r="N28" s="26"/>
       <c r="O28" s="26"/>
       <c r="P28" s="26"/>
       <c r="Q28" s="27"/>
-      <c r="R28" s="55" t="s">
-        <v>34</v>
+      <c r="R28" s="51" t="s">
+        <v>38</v>
       </c>
       <c r="S28" s="28" t="s">
-        <v>344</v>
+        <v>372</v>
       </c>
       <c r="T28" s="26" t="s">
-        <v>345</v>
+        <v>373</v>
       </c>
       <c r="U28" s="26"/>
       <c r="V28" s="16"/>
       <c r="W28" s="16"/>
       <c r="X28" s="16" t="s">
-        <v>346</v>
+        <v>374</v>
       </c>
       <c r="Y28" s="17" t="s">
-        <v>53</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="AA28" s="83"/>
+      <c r="AB28" s="93"/>
+      <c r="AC28" s="88"/>
     </row>
-    <row r="29" spans="1:25" s="33" customFormat="1" ht="64.5" outlineLevel="1">
-      <c r="A29" s="44" t="s">
-        <v>322</v>
-      </c>
-      <c r="B29" s="44" t="s">
-        <v>100</v>
-      </c>
-      <c r="C29" s="69" t="s">
+    <row r="29" spans="1:29" s="29" customFormat="1" ht="126" outlineLevel="1">
+      <c r="A29" s="65" t="s">
         <v>347</v>
       </c>
-      <c r="D29" s="70">
+      <c r="B29" s="65" t="s">
+        <v>113</v>
+      </c>
+      <c r="C29" s="41" t="s">
+        <v>375</v>
+      </c>
+      <c r="D29" s="42">
         <v>28</v>
       </c>
-      <c r="E29" s="32" t="s">
-        <v>348</v>
-      </c>
-      <c r="F29" s="32" t="s">
-        <v>58</v>
-      </c>
-      <c r="G29" s="32" t="s">
-        <v>349</v>
-      </c>
-      <c r="H29" s="32" t="s">
-        <v>105</v>
-      </c>
-      <c r="I29" s="32" t="s">
-        <v>350</v>
-      </c>
-      <c r="J29" s="71" t="s">
-        <v>230</v>
-      </c>
-      <c r="K29" s="72"/>
-      <c r="L29" s="32"/>
-      <c r="M29" s="32" t="s">
-        <v>105</v>
-      </c>
-      <c r="N29" s="32"/>
-      <c r="O29" s="32"/>
-      <c r="P29" s="32"/>
-      <c r="Q29" s="71"/>
-      <c r="R29" s="41" t="s">
-        <v>107</v>
-      </c>
-      <c r="S29" s="72" t="s">
-        <v>338</v>
-      </c>
-      <c r="T29" s="32"/>
-      <c r="U29" s="32"/>
-      <c r="V29" s="16" t="s">
-        <v>351</v>
-      </c>
-      <c r="W29" s="16"/>
-      <c r="X29" s="16" t="s">
-        <v>352</v>
-      </c>
-      <c r="Y29" s="17" t="s">
-        <v>36</v>
-      </c>
+      <c r="E29" s="26" t="s">
+        <v>376</v>
+      </c>
+      <c r="F29" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="G29" s="26" t="s">
+        <v>377</v>
+      </c>
+      <c r="H29" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="I29" s="26" t="s">
+        <v>378</v>
+      </c>
+      <c r="J29" s="27" t="s">
+        <v>252</v>
+      </c>
+      <c r="K29" s="28"/>
+      <c r="L29" s="26"/>
+      <c r="M29" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="N29" s="26"/>
+      <c r="O29" s="26"/>
+      <c r="P29" s="26"/>
+      <c r="Q29" s="27"/>
+      <c r="R29" s="51" t="s">
+        <v>38</v>
+      </c>
+      <c r="S29" s="28" t="s">
+        <v>364</v>
+      </c>
+      <c r="T29" s="26"/>
+      <c r="U29" s="26"/>
+      <c r="V29" s="26" t="s">
+        <v>379</v>
+      </c>
+      <c r="W29" s="26"/>
+      <c r="X29" s="26" t="s">
+        <v>380</v>
+      </c>
+      <c r="Y29" s="66" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA29" s="83"/>
+      <c r="AB29" s="94" t="s">
+        <v>381</v>
+      </c>
+      <c r="AC29" s="88"/>
     </row>
-    <row r="30" spans="1:25" s="21" customFormat="1" ht="64.5" outlineLevel="1">
-      <c r="A30" s="44" t="s">
-        <v>322</v>
-      </c>
-      <c r="B30" s="44" t="s">
-        <v>208</v>
-      </c>
-      <c r="C30" s="69" t="s">
-        <v>353</v>
-      </c>
-      <c r="D30" s="70">
+    <row r="30" spans="1:29" s="29" customFormat="1" ht="126" outlineLevel="1">
+      <c r="A30" s="65" t="s">
+        <v>347</v>
+      </c>
+      <c r="B30" s="65" t="s">
+        <v>228</v>
+      </c>
+      <c r="C30" s="41" t="s">
+        <v>382</v>
+      </c>
+      <c r="D30" s="42">
         <v>29</v>
       </c>
-      <c r="E30" s="32" t="s">
-        <v>354</v>
-      </c>
-      <c r="F30" s="32" t="s">
-        <v>103</v>
-      </c>
-      <c r="G30" s="32" t="s">
-        <v>355</v>
-      </c>
-      <c r="H30" s="32" t="s">
-        <v>105</v>
-      </c>
-      <c r="I30" s="32" t="s">
-        <v>337</v>
-      </c>
-      <c r="J30" s="71" t="s">
-        <v>230</v>
-      </c>
-      <c r="K30" s="72"/>
-      <c r="L30" s="32"/>
-      <c r="M30" s="32" t="s">
-        <v>105</v>
-      </c>
-      <c r="N30" s="32"/>
-      <c r="O30" s="32"/>
-      <c r="P30" s="32"/>
-      <c r="Q30" s="71"/>
-      <c r="R30" s="41" t="s">
-        <v>107</v>
-      </c>
-      <c r="S30" s="72" t="s">
-        <v>338</v>
-      </c>
-      <c r="T30" s="32"/>
-      <c r="U30" s="32"/>
-      <c r="V30" s="16" t="s">
-        <v>356</v>
-      </c>
-      <c r="W30" s="16"/>
-      <c r="X30" s="16" t="s">
-        <v>352</v>
-      </c>
-      <c r="Y30" s="17" t="s">
-        <v>36</v>
-      </c>
+      <c r="E30" s="26" t="s">
+        <v>383</v>
+      </c>
+      <c r="F30" s="26" t="s">
+        <v>116</v>
+      </c>
+      <c r="G30" s="26" t="s">
+        <v>384</v>
+      </c>
+      <c r="H30" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="I30" s="26" t="s">
+        <v>363</v>
+      </c>
+      <c r="J30" s="27" t="s">
+        <v>252</v>
+      </c>
+      <c r="K30" s="28"/>
+      <c r="L30" s="26"/>
+      <c r="M30" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="N30" s="26"/>
+      <c r="O30" s="26"/>
+      <c r="P30" s="26"/>
+      <c r="Q30" s="27"/>
+      <c r="R30" s="51" t="s">
+        <v>38</v>
+      </c>
+      <c r="S30" s="28" t="s">
+        <v>364</v>
+      </c>
+      <c r="T30" s="26"/>
+      <c r="U30" s="26"/>
+      <c r="V30" s="26" t="s">
+        <v>385</v>
+      </c>
+      <c r="W30" s="26"/>
+      <c r="X30" s="26" t="s">
+        <v>380</v>
+      </c>
+      <c r="Y30" s="66" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA30" s="83"/>
+      <c r="AB30" s="94" t="s">
+        <v>386</v>
+      </c>
+      <c r="AC30" s="88"/>
     </row>
-    <row r="31" spans="1:25" s="33" customFormat="1" ht="32.25" outlineLevel="1">
-      <c r="A31" s="44" t="s">
-        <v>322</v>
-      </c>
-      <c r="B31" s="44" t="s">
-        <v>208</v>
-      </c>
-      <c r="C31" s="69" t="s">
-        <v>357</v>
-      </c>
-      <c r="D31" s="70">
+    <row r="31" spans="1:29" s="29" customFormat="1" ht="126" outlineLevel="1">
+      <c r="A31" s="65" t="s">
+        <v>347</v>
+      </c>
+      <c r="B31" s="65" t="s">
+        <v>228</v>
+      </c>
+      <c r="C31" s="41" t="s">
+        <v>387</v>
+      </c>
+      <c r="D31" s="42">
         <v>30</v>
       </c>
-      <c r="E31" s="32" t="s">
-        <v>358</v>
-      </c>
-      <c r="F31" s="32" t="s">
-        <v>103</v>
-      </c>
-      <c r="G31" s="32" t="s">
-        <v>359</v>
-      </c>
-      <c r="H31" s="32" t="s">
-        <v>105</v>
-      </c>
-      <c r="I31" s="32" t="s">
-        <v>337</v>
-      </c>
-      <c r="J31" s="71" t="s">
-        <v>230</v>
-      </c>
-      <c r="K31" s="72"/>
-      <c r="L31" s="32"/>
-      <c r="M31" s="32" t="s">
-        <v>105</v>
-      </c>
-      <c r="N31" s="32"/>
-      <c r="O31" s="32"/>
-      <c r="P31" s="32"/>
-      <c r="Q31" s="71"/>
-      <c r="R31" s="41" t="s">
-        <v>107</v>
-      </c>
-      <c r="S31" s="72" t="s">
-        <v>338</v>
-      </c>
-      <c r="T31" s="32"/>
-      <c r="U31" s="32"/>
-      <c r="V31" s="16"/>
-      <c r="W31" s="16"/>
-      <c r="X31" s="16" t="s">
-        <v>352</v>
-      </c>
-      <c r="Y31" s="17" t="s">
-        <v>36</v>
-      </c>
+      <c r="E31" s="26" t="s">
+        <v>388</v>
+      </c>
+      <c r="F31" s="26" t="s">
+        <v>116</v>
+      </c>
+      <c r="G31" s="26" t="s">
+        <v>389</v>
+      </c>
+      <c r="H31" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="I31" s="26" t="s">
+        <v>363</v>
+      </c>
+      <c r="J31" s="27" t="s">
+        <v>252</v>
+      </c>
+      <c r="K31" s="28"/>
+      <c r="L31" s="26"/>
+      <c r="M31" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="N31" s="26"/>
+      <c r="O31" s="26"/>
+      <c r="P31" s="26"/>
+      <c r="Q31" s="27"/>
+      <c r="R31" s="51" t="s">
+        <v>38</v>
+      </c>
+      <c r="S31" s="28" t="s">
+        <v>364</v>
+      </c>
+      <c r="T31" s="26"/>
+      <c r="U31" s="26"/>
+      <c r="V31" s="26"/>
+      <c r="W31" s="26"/>
+      <c r="X31" s="26" t="s">
+        <v>380</v>
+      </c>
+      <c r="Y31" s="66" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA31" s="83"/>
+      <c r="AB31" s="94" t="s">
+        <v>386</v>
+      </c>
+      <c r="AC31" s="88"/>
     </row>
-    <row r="32" spans="1:25" s="33" customFormat="1" ht="32.25" outlineLevel="1">
-      <c r="A32" s="44" t="s">
-        <v>72</v>
-      </c>
-      <c r="B32" s="44" t="s">
-        <v>360</v>
-      </c>
-      <c r="C32" s="69" t="s">
-        <v>361</v>
-      </c>
-      <c r="D32" s="70">
+    <row r="32" spans="1:29" s="29" customFormat="1" ht="141.75" outlineLevel="1">
+      <c r="A32" s="65" t="s">
+        <v>79</v>
+      </c>
+      <c r="B32" s="65" t="s">
+        <v>390</v>
+      </c>
+      <c r="C32" s="41" t="s">
+        <v>391</v>
+      </c>
+      <c r="D32" s="42">
         <v>31</v>
       </c>
-      <c r="E32" s="32" t="s">
-        <v>362</v>
-      </c>
-      <c r="F32" s="32" t="s">
-        <v>58</v>
-      </c>
-      <c r="G32" s="32" t="s">
-        <v>363</v>
-      </c>
-      <c r="H32" s="32" t="s">
-        <v>105</v>
-      </c>
-      <c r="I32" s="32" t="s">
-        <v>364</v>
-      </c>
-      <c r="J32" s="71" t="s">
-        <v>230</v>
-      </c>
-      <c r="K32" s="72"/>
-      <c r="L32" s="32"/>
-      <c r="M32" s="32" t="s">
-        <v>105</v>
-      </c>
-      <c r="N32" s="32"/>
-      <c r="O32" s="32"/>
-      <c r="P32" s="32"/>
-      <c r="Q32" s="71"/>
-      <c r="R32" s="41" t="s">
-        <v>107</v>
-      </c>
-      <c r="S32" s="72" t="s">
-        <v>365</v>
-      </c>
-      <c r="T32" s="32"/>
-      <c r="U32" s="32"/>
-      <c r="V32" s="16" t="s">
-        <v>366</v>
-      </c>
-      <c r="W32" s="16"/>
-      <c r="X32" s="16" t="s">
-        <v>367</v>
-      </c>
-      <c r="Y32" s="17" t="s">
-        <v>36</v>
-      </c>
+      <c r="E32" s="26" t="s">
+        <v>392</v>
+      </c>
+      <c r="F32" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="G32" s="26" t="s">
+        <v>393</v>
+      </c>
+      <c r="H32" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="I32" s="26" t="s">
+        <v>394</v>
+      </c>
+      <c r="J32" s="27" t="s">
+        <v>252</v>
+      </c>
+      <c r="K32" s="28"/>
+      <c r="L32" s="26"/>
+      <c r="M32" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="N32" s="26"/>
+      <c r="O32" s="26"/>
+      <c r="P32" s="26"/>
+      <c r="Q32" s="27"/>
+      <c r="R32" s="51" t="s">
+        <v>38</v>
+      </c>
+      <c r="S32" s="28" t="s">
+        <v>395</v>
+      </c>
+      <c r="T32" s="26"/>
+      <c r="U32" s="26"/>
+      <c r="V32" s="26" t="s">
+        <v>396</v>
+      </c>
+      <c r="W32" s="26"/>
+      <c r="X32" s="26" t="s">
+        <v>397</v>
+      </c>
+      <c r="Y32" s="66" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA32" s="83"/>
+      <c r="AB32" s="94" t="s">
+        <v>398</v>
+      </c>
+      <c r="AC32" s="88"/>
     </row>
-    <row r="33" spans="1:25" s="33" customFormat="1" ht="60.75" outlineLevel="1">
-      <c r="A33" s="44" t="s">
-        <v>368</v>
-      </c>
-      <c r="B33" s="44" t="s">
-        <v>369</v>
-      </c>
-      <c r="C33" s="69" t="s">
-        <v>370</v>
-      </c>
-      <c r="D33" s="70">
+    <row r="33" spans="1:29" s="21" customFormat="1" ht="63" outlineLevel="1">
+      <c r="A33" s="45" t="s">
+        <v>399</v>
+      </c>
+      <c r="B33" s="45" t="s">
+        <v>400</v>
+      </c>
+      <c r="C33" s="46" t="s">
+        <v>401</v>
+      </c>
+      <c r="D33" s="47">
         <v>32</v>
       </c>
-      <c r="E33" s="73"/>
-      <c r="F33" s="32" t="s">
-        <v>58</v>
-      </c>
-      <c r="G33" s="32" t="s">
-        <v>370</v>
-      </c>
-      <c r="H33" s="32"/>
-      <c r="I33" s="32" t="s">
-        <v>371</v>
-      </c>
-      <c r="J33" s="71"/>
-      <c r="K33" s="72" t="s">
-        <v>372</v>
-      </c>
-      <c r="L33" s="32" t="s">
-        <v>58</v>
-      </c>
-      <c r="M33" s="32"/>
-      <c r="N33" s="32" t="s">
-        <v>373</v>
-      </c>
-      <c r="O33" s="83" t="s">
-        <v>374</v>
-      </c>
-      <c r="P33" s="32" t="s">
-        <v>375</v>
-      </c>
-      <c r="Q33" s="71" t="s">
-        <v>66</v>
-      </c>
-      <c r="R33" s="41" t="s">
-        <v>107</v>
-      </c>
-      <c r="S33" s="72" t="s">
-        <v>376</v>
-      </c>
-      <c r="T33" s="32"/>
-      <c r="U33" s="32"/>
-      <c r="V33" s="16"/>
-      <c r="W33" s="16"/>
-      <c r="X33" s="16"/>
-      <c r="Y33" s="17"/>
+      <c r="E33" s="59"/>
+      <c r="F33" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="G33" s="20" t="s">
+        <v>401</v>
+      </c>
+      <c r="H33" s="20"/>
+      <c r="I33" s="20" t="s">
+        <v>402</v>
+      </c>
+      <c r="J33" s="48"/>
+      <c r="K33" s="49" t="s">
+        <v>403</v>
+      </c>
+      <c r="L33" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="M33" s="20"/>
+      <c r="N33" s="20" t="s">
+        <v>404</v>
+      </c>
+      <c r="O33" s="60" t="s">
+        <v>405</v>
+      </c>
+      <c r="P33" s="20" t="s">
+        <v>406</v>
+      </c>
+      <c r="Q33" s="48" t="s">
+        <v>70</v>
+      </c>
+      <c r="R33" s="35" t="s">
+        <v>240</v>
+      </c>
+      <c r="S33" s="49" t="s">
+        <v>407</v>
+      </c>
+      <c r="T33" s="20"/>
+      <c r="U33" s="20"/>
+      <c r="V33" s="20"/>
+      <c r="W33" s="20"/>
+      <c r="X33" s="20"/>
+      <c r="Y33" s="50"/>
+      <c r="AA33" s="85"/>
+      <c r="AB33" s="97" t="s">
+        <v>408</v>
+      </c>
+      <c r="AC33" s="89"/>
     </row>
-    <row r="34" spans="1:25" s="33" customFormat="1" ht="64.5" outlineLevel="1">
-      <c r="A34" s="44" t="s">
-        <v>368</v>
-      </c>
-      <c r="B34" s="44" t="s">
-        <v>208</v>
-      </c>
-      <c r="C34" s="69" t="s">
-        <v>377</v>
-      </c>
-      <c r="D34" s="70">
+    <row r="34" spans="1:29" s="29" customFormat="1" ht="63" outlineLevel="1">
+      <c r="A34" s="65" t="s">
+        <v>399</v>
+      </c>
+      <c r="B34" s="65" t="s">
+        <v>228</v>
+      </c>
+      <c r="C34" s="41" t="s">
+        <v>409</v>
+      </c>
+      <c r="D34" s="42">
         <v>33</v>
       </c>
-      <c r="E34" s="73"/>
-      <c r="F34" s="32" t="s">
-        <v>58</v>
-      </c>
-      <c r="G34" s="32" t="s">
-        <v>377</v>
-      </c>
-      <c r="H34" s="32"/>
-      <c r="I34" s="32" t="s">
-        <v>378</v>
-      </c>
-      <c r="J34" s="71"/>
-      <c r="K34" s="72" t="s">
-        <v>379</v>
-      </c>
-      <c r="L34" s="32" t="s">
-        <v>58</v>
-      </c>
-      <c r="M34" s="32"/>
-      <c r="N34" s="32" t="s">
-        <v>380</v>
-      </c>
-      <c r="O34" s="83" t="s">
-        <v>381</v>
-      </c>
-      <c r="P34" s="32" t="s">
-        <v>378</v>
-      </c>
-      <c r="Q34" s="71" t="s">
-        <v>66</v>
-      </c>
-      <c r="R34" s="41" t="s">
-        <v>107</v>
-      </c>
-      <c r="S34" s="72"/>
-      <c r="T34" s="32"/>
-      <c r="U34" s="32"/>
-      <c r="V34" s="16"/>
-      <c r="W34" s="16"/>
-      <c r="X34" s="16"/>
-      <c r="Y34" s="17"/>
+      <c r="E34" s="77"/>
+      <c r="F34" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="G34" s="26" t="s">
+        <v>409</v>
+      </c>
+      <c r="H34" s="26"/>
+      <c r="I34" s="26" t="s">
+        <v>410</v>
+      </c>
+      <c r="J34" s="27"/>
+      <c r="K34" s="28" t="s">
+        <v>411</v>
+      </c>
+      <c r="L34" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="M34" s="26"/>
+      <c r="N34" s="26" t="s">
+        <v>412</v>
+      </c>
+      <c r="O34" s="61" t="s">
+        <v>413</v>
+      </c>
+      <c r="P34" s="26" t="s">
+        <v>410</v>
+      </c>
+      <c r="Q34" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="R34" s="51" t="s">
+        <v>38</v>
+      </c>
+      <c r="S34" s="28" t="s">
+        <v>414</v>
+      </c>
+      <c r="T34" s="26"/>
+      <c r="U34" s="26"/>
+      <c r="V34" s="26"/>
+      <c r="W34" s="26"/>
+      <c r="X34" s="26"/>
+      <c r="Y34" s="66"/>
+      <c r="AA34" s="83"/>
+      <c r="AB34" s="94" t="s">
+        <v>415</v>
+      </c>
+      <c r="AC34" s="88"/>
     </row>
-    <row r="35" spans="1:25" s="33" customFormat="1" ht="64.5" outlineLevel="1">
-      <c r="A35" s="44" t="s">
-        <v>368</v>
-      </c>
-      <c r="B35" s="44" t="s">
-        <v>369</v>
-      </c>
-      <c r="C35" s="69" t="s">
-        <v>382</v>
-      </c>
-      <c r="D35" s="70">
+    <row r="35" spans="1:29" s="21" customFormat="1" ht="63" outlineLevel="1">
+      <c r="A35" s="45" t="s">
+        <v>399</v>
+      </c>
+      <c r="B35" s="45" t="s">
+        <v>400</v>
+      </c>
+      <c r="C35" s="46" t="s">
+        <v>416</v>
+      </c>
+      <c r="D35" s="47">
         <v>34</v>
       </c>
-      <c r="E35" s="73"/>
-      <c r="F35" s="32" t="s">
-        <v>103</v>
-      </c>
-      <c r="G35" s="32" t="s">
-        <v>382</v>
-      </c>
-      <c r="H35" s="32"/>
-      <c r="I35" s="32"/>
-      <c r="J35" s="71"/>
-      <c r="K35" s="72" t="s">
-        <v>383</v>
-      </c>
-      <c r="L35" s="32" t="s">
-        <v>103</v>
-      </c>
-      <c r="M35" s="32"/>
-      <c r="N35" s="32" t="s">
-        <v>384</v>
-      </c>
-      <c r="O35" s="83" t="s">
-        <v>385</v>
-      </c>
-      <c r="P35" s="32"/>
-      <c r="Q35" s="71" t="s">
-        <v>66</v>
-      </c>
-      <c r="R35" s="41" t="s">
-        <v>107</v>
-      </c>
-      <c r="S35" s="72"/>
-      <c r="T35" s="32"/>
-      <c r="U35" s="32"/>
-      <c r="V35" s="16"/>
-      <c r="W35" s="16"/>
-      <c r="X35" s="16"/>
-      <c r="Y35" s="17"/>
+      <c r="E35" s="59"/>
+      <c r="F35" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="G35" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="H35" s="20"/>
+      <c r="I35" s="20"/>
+      <c r="J35" s="48"/>
+      <c r="K35" s="49" t="s">
+        <v>417</v>
+      </c>
+      <c r="L35" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="M35" s="20"/>
+      <c r="N35" s="20" t="s">
+        <v>418</v>
+      </c>
+      <c r="O35" s="60" t="s">
+        <v>419</v>
+      </c>
+      <c r="P35" s="20"/>
+      <c r="Q35" s="48" t="s">
+        <v>70</v>
+      </c>
+      <c r="R35" s="35" t="s">
+        <v>240</v>
+      </c>
+      <c r="S35" s="49" t="s">
+        <v>414</v>
+      </c>
+      <c r="T35" s="20"/>
+      <c r="U35" s="20"/>
+      <c r="V35" s="20"/>
+      <c r="W35" s="20"/>
+      <c r="X35" s="20"/>
+      <c r="Y35" s="50"/>
+      <c r="AA35" s="85"/>
+      <c r="AB35" s="97" t="s">
+        <v>420</v>
+      </c>
+      <c r="AC35" s="89"/>
     </row>
-    <row r="36" spans="1:25" s="33" customFormat="1" ht="113.25" outlineLevel="1">
-      <c r="A36" s="44" t="s">
-        <v>386</v>
-      </c>
-      <c r="B36" s="44" t="s">
-        <v>387</v>
-      </c>
-      <c r="C36" s="50" t="s">
-        <v>388</v>
-      </c>
-      <c r="D36" s="51">
+    <row r="36" spans="1:29" s="21" customFormat="1" ht="110.25" outlineLevel="1">
+      <c r="A36" s="40" t="s">
+        <v>421</v>
+      </c>
+      <c r="B36" s="40" t="s">
+        <v>422</v>
+      </c>
+      <c r="C36" s="46" t="s">
+        <v>423</v>
+      </c>
+      <c r="D36" s="47">
         <v>35</v>
       </c>
-      <c r="E36" s="74"/>
+      <c r="E36" s="59"/>
       <c r="F36" s="20" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="G36" s="20" t="s">
-        <v>388</v>
+        <v>423</v>
       </c>
       <c r="H36" s="20"/>
       <c r="I36" s="20" t="s">
-        <v>389</v>
-      </c>
-      <c r="J36" s="52"/>
-      <c r="K36" s="53" t="s">
-        <v>390</v>
+        <v>424</v>
+      </c>
+      <c r="J36" s="48"/>
+      <c r="K36" s="49" t="s">
+        <v>425</v>
       </c>
       <c r="L36" s="20" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="M36" s="20"/>
       <c r="N36" s="20" t="s">
-        <v>391</v>
-      </c>
-      <c r="O36" s="76" t="s">
-        <v>392</v>
+        <v>426</v>
+      </c>
+      <c r="O36" s="60" t="s">
+        <v>427</v>
       </c>
       <c r="P36" s="20" t="s">
-        <v>393</v>
-      </c>
-      <c r="Q36" s="52" t="s">
-        <v>66</v>
-      </c>
-      <c r="R36" s="39" t="s">
-        <v>67</v>
-      </c>
-      <c r="S36" s="53" t="s">
-        <v>394</v>
+        <v>428</v>
+      </c>
+      <c r="Q36" s="48" t="s">
+        <v>70</v>
+      </c>
+      <c r="R36" s="35" t="s">
+        <v>240</v>
+      </c>
+      <c r="S36" s="49" t="s">
+        <v>429</v>
       </c>
       <c r="T36" s="20" t="s">
-        <v>395</v>
+        <v>430</v>
       </c>
       <c r="U36" s="20"/>
       <c r="V36" s="16"/>
       <c r="W36" s="16"/>
       <c r="X36" s="16"/>
       <c r="Y36" s="17"/>
+      <c r="AA36" s="85"/>
+      <c r="AB36" s="95"/>
+      <c r="AC36" s="89"/>
     </row>
-    <row r="37" spans="1:25" s="33" customFormat="1" ht="60.75" outlineLevel="1">
-      <c r="A37" s="44" t="s">
-        <v>368</v>
-      </c>
-      <c r="B37" s="44" t="s">
-        <v>369</v>
-      </c>
-      <c r="C37" s="69" t="s">
-        <v>396</v>
-      </c>
-      <c r="D37" s="70">
+    <row r="37" spans="1:29" s="21" customFormat="1" ht="63" outlineLevel="1">
+      <c r="A37" s="45" t="s">
+        <v>399</v>
+      </c>
+      <c r="B37" s="45" t="s">
+        <v>400</v>
+      </c>
+      <c r="C37" s="46" t="s">
+        <v>431</v>
+      </c>
+      <c r="D37" s="47">
         <v>36</v>
       </c>
-      <c r="E37" s="73"/>
-      <c r="F37" s="32" t="s">
-        <v>103</v>
-      </c>
-      <c r="G37" s="32" t="s">
-        <v>396</v>
-      </c>
-      <c r="H37" s="32"/>
-      <c r="I37" s="32"/>
-      <c r="J37" s="71"/>
-      <c r="K37" s="72" t="s">
-        <v>397</v>
-      </c>
-      <c r="L37" s="32" t="s">
-        <v>103</v>
-      </c>
-      <c r="M37" s="32"/>
-      <c r="N37" s="32" t="s">
-        <v>398</v>
-      </c>
-      <c r="O37" s="83" t="s">
+      <c r="E37" s="59"/>
+      <c r="F37" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="G37" s="20" t="s">
+        <v>431</v>
+      </c>
+      <c r="H37" s="20"/>
+      <c r="I37" s="20"/>
+      <c r="J37" s="48"/>
+      <c r="K37" s="49" t="s">
+        <v>432</v>
+      </c>
+      <c r="L37" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="M37" s="20"/>
+      <c r="N37" s="20" t="s">
+        <v>433</v>
+      </c>
+      <c r="O37" s="60" t="s">
+        <v>434</v>
+      </c>
+      <c r="P37" s="20"/>
+      <c r="Q37" s="48" t="s">
+        <v>70</v>
+      </c>
+      <c r="R37" s="35" t="s">
+        <v>240</v>
+      </c>
+      <c r="S37" s="49" t="s">
+        <v>435</v>
+      </c>
+      <c r="T37" s="20"/>
+      <c r="U37" s="20"/>
+      <c r="V37" s="20"/>
+      <c r="W37" s="20"/>
+      <c r="X37" s="20"/>
+      <c r="Y37" s="50"/>
+      <c r="AA37" s="85"/>
+      <c r="AB37" s="97" t="s">
+        <v>408</v>
+      </c>
+      <c r="AC37" s="89"/>
+    </row>
+    <row r="38" spans="1:29" s="21" customFormat="1" ht="60" outlineLevel="1">
+      <c r="A38" s="45" t="s">
         <v>399</v>
       </c>
-      <c r="P37" s="32"/>
-      <c r="Q37" s="71" t="s">
-        <v>66</v>
-      </c>
-      <c r="R37" s="41" t="s">
-        <v>107</v>
-      </c>
-      <c r="S37" s="72" t="s">
-        <v>376</v>
-      </c>
-      <c r="T37" s="32"/>
-      <c r="U37" s="32"/>
-      <c r="V37" s="16"/>
-      <c r="W37" s="16"/>
-      <c r="X37" s="16"/>
-      <c r="Y37" s="17"/>
+      <c r="B38" s="45" t="s">
+        <v>228</v>
+      </c>
+      <c r="C38" s="46" t="s">
+        <v>436</v>
+      </c>
+      <c r="D38" s="47">
+        <v>37</v>
+      </c>
+      <c r="E38" s="59"/>
+      <c r="F38" s="20" t="s">
+        <v>437</v>
+      </c>
+      <c r="G38" s="20" t="s">
+        <v>436</v>
+      </c>
+      <c r="H38" s="20"/>
+      <c r="I38" s="20"/>
+      <c r="J38" s="48"/>
+      <c r="K38" s="49" t="s">
+        <v>438</v>
+      </c>
+      <c r="L38" s="20" t="s">
+        <v>437</v>
+      </c>
+      <c r="M38" s="20"/>
+      <c r="N38" s="20" t="s">
+        <v>439</v>
+      </c>
+      <c r="O38" s="60" t="s">
+        <v>440</v>
+      </c>
+      <c r="P38" s="20"/>
+      <c r="Q38" s="48" t="s">
+        <v>70</v>
+      </c>
+      <c r="R38" s="35" t="s">
+        <v>240</v>
+      </c>
+      <c r="S38" s="49" t="s">
+        <v>441</v>
+      </c>
+      <c r="T38" s="20"/>
+      <c r="U38" s="20"/>
+      <c r="V38" s="20"/>
+      <c r="W38" s="20"/>
+      <c r="X38" s="20"/>
+      <c r="Y38" s="50"/>
+      <c r="AA38" s="85"/>
+      <c r="AB38" s="97" t="s">
+        <v>442</v>
+      </c>
+      <c r="AC38" s="89"/>
     </row>
-    <row r="38" spans="1:25" s="33" customFormat="1" ht="60.75" outlineLevel="1">
-      <c r="A38" s="44" t="s">
-        <v>368</v>
-      </c>
-      <c r="B38" s="44" t="s">
-        <v>208</v>
-      </c>
-      <c r="C38" s="69" t="s">
-        <v>400</v>
-      </c>
-      <c r="D38" s="70">
-        <v>37</v>
-      </c>
-      <c r="E38" s="73"/>
-      <c r="F38" s="32" t="s">
-        <v>401</v>
-      </c>
-      <c r="G38" s="32" t="s">
-        <v>400</v>
-      </c>
-      <c r="H38" s="32"/>
-      <c r="I38" s="32"/>
-      <c r="J38" s="71"/>
-      <c r="K38" s="72" t="s">
-        <v>402</v>
-      </c>
-      <c r="L38" s="32" t="s">
-        <v>401</v>
-      </c>
-      <c r="M38" s="32"/>
-      <c r="N38" s="32" t="s">
-        <v>403</v>
-      </c>
-      <c r="O38" s="83" t="s">
-        <v>404</v>
-      </c>
-      <c r="P38" s="32"/>
-      <c r="Q38" s="71" t="s">
-        <v>66</v>
-      </c>
-      <c r="R38" s="41" t="s">
-        <v>107</v>
-      </c>
-      <c r="S38" s="72" t="s">
-        <v>405</v>
-      </c>
-      <c r="T38" s="32"/>
-      <c r="U38" s="32"/>
-      <c r="V38" s="16"/>
-      <c r="W38" s="16"/>
-      <c r="X38" s="16"/>
-      <c r="Y38" s="17"/>
-    </row>
-    <row r="39" spans="1:25" s="33" customFormat="1" ht="113.25">
-      <c r="A39" s="44" t="s">
-        <v>368</v>
-      </c>
-      <c r="B39" s="44" t="s">
-        <v>406</v>
-      </c>
-      <c r="C39" s="50" t="s">
-        <v>407</v>
-      </c>
-      <c r="D39" s="51">
+    <row r="39" spans="1:29" s="21" customFormat="1" ht="267.75">
+      <c r="A39" s="45" t="s">
+        <v>399</v>
+      </c>
+      <c r="B39" s="45" t="s">
+        <v>443</v>
+      </c>
+      <c r="C39" s="46" t="s">
+        <v>444</v>
+      </c>
+      <c r="D39" s="47">
         <v>38</v>
       </c>
-      <c r="E39" s="74"/>
+      <c r="E39" s="59"/>
       <c r="F39" s="20" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="G39" s="20" t="s">
-        <v>407</v>
+        <v>444</v>
       </c>
       <c r="H39" s="20"/>
       <c r="I39" s="20"/>
-      <c r="J39" s="52"/>
-      <c r="K39" s="53" t="s">
-        <v>408</v>
+      <c r="J39" s="48"/>
+      <c r="K39" s="49" t="s">
+        <v>445</v>
       </c>
       <c r="L39" s="20" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="M39" s="20"/>
       <c r="N39" s="20" t="s">
-        <v>409</v>
-      </c>
-      <c r="O39" s="76" t="s">
-        <v>410</v>
+        <v>446</v>
+      </c>
+      <c r="O39" s="60" t="s">
+        <v>447</v>
       </c>
       <c r="P39" s="20"/>
-      <c r="Q39" s="52" t="s">
-        <v>66</v>
-      </c>
-      <c r="R39" s="39" t="s">
-        <v>80</v>
-      </c>
-      <c r="S39" s="53" t="s">
-        <v>411</v>
+      <c r="Q39" s="48" t="s">
+        <v>70</v>
+      </c>
+      <c r="R39" s="35" t="s">
+        <v>240</v>
+      </c>
+      <c r="S39" s="49" t="s">
+        <v>448</v>
       </c>
       <c r="T39" s="20" t="s">
-        <v>412</v>
-      </c>
-      <c r="U39" s="20"/>
-      <c r="V39" s="16"/>
-      <c r="W39" s="16"/>
-      <c r="X39" s="16"/>
-      <c r="Y39" s="17"/>
+        <v>449</v>
+      </c>
+      <c r="U39" s="63" t="s">
+        <v>450</v>
+      </c>
+      <c r="V39" s="20"/>
+      <c r="W39" s="20"/>
+      <c r="X39" s="20"/>
+      <c r="Y39" s="50"/>
+      <c r="AA39" s="85"/>
+      <c r="AB39" s="97" t="s">
+        <v>451</v>
+      </c>
+      <c r="AC39" s="89"/>
     </row>
-    <row r="40" spans="1:25" s="21" customFormat="1" ht="81">
-      <c r="A40" s="44" t="s">
-        <v>368</v>
-      </c>
-      <c r="B40" s="44" t="s">
-        <v>406</v>
-      </c>
-      <c r="C40" s="69" t="s">
-        <v>413</v>
-      </c>
-      <c r="D40" s="70">
+    <row r="40" spans="1:29" s="21" customFormat="1" ht="94.5">
+      <c r="A40" s="45" t="s">
+        <v>399</v>
+      </c>
+      <c r="B40" s="45" t="s">
+        <v>443</v>
+      </c>
+      <c r="C40" s="46" t="s">
+        <v>452</v>
+      </c>
+      <c r="D40" s="47">
         <v>39</v>
       </c>
-      <c r="E40" s="73"/>
-      <c r="F40" s="32" t="s">
-        <v>103</v>
-      </c>
-      <c r="G40" s="32" t="s">
-        <v>413</v>
-      </c>
-      <c r="H40" s="32"/>
-      <c r="I40" s="32"/>
-      <c r="J40" s="71"/>
-      <c r="K40" s="72" t="s">
-        <v>414</v>
-      </c>
-      <c r="L40" s="32" t="s">
-        <v>103</v>
-      </c>
-      <c r="M40" s="32"/>
-      <c r="N40" s="32" t="s">
-        <v>415</v>
-      </c>
-      <c r="O40" s="83" t="s">
-        <v>416</v>
-      </c>
-      <c r="P40" s="32"/>
-      <c r="Q40" s="71" t="s">
-        <v>66</v>
-      </c>
-      <c r="R40" s="41" t="s">
-        <v>107</v>
-      </c>
-      <c r="S40" s="72" t="s">
-        <v>405</v>
-      </c>
-      <c r="T40" s="32"/>
-      <c r="U40" s="32"/>
-      <c r="V40" s="16"/>
-      <c r="W40" s="16"/>
-      <c r="X40" s="16"/>
-      <c r="Y40" s="17"/>
+      <c r="E40" s="59"/>
+      <c r="F40" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="G40" s="20" t="s">
+        <v>452</v>
+      </c>
+      <c r="H40" s="20"/>
+      <c r="I40" s="20"/>
+      <c r="J40" s="48"/>
+      <c r="K40" s="49" t="s">
+        <v>453</v>
+      </c>
+      <c r="L40" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="M40" s="20"/>
+      <c r="N40" s="20" t="s">
+        <v>454</v>
+      </c>
+      <c r="O40" s="60" t="s">
+        <v>455</v>
+      </c>
+      <c r="P40" s="20"/>
+      <c r="Q40" s="48" t="s">
+        <v>70</v>
+      </c>
+      <c r="R40" s="35" t="s">
+        <v>240</v>
+      </c>
+      <c r="S40" s="49" t="s">
+        <v>456</v>
+      </c>
+      <c r="T40" s="20"/>
+      <c r="U40" s="20"/>
+      <c r="V40" s="20"/>
+      <c r="W40" s="20"/>
+      <c r="X40" s="20"/>
+      <c r="Y40" s="50"/>
+      <c r="AA40" s="85"/>
+      <c r="AB40" s="97" t="s">
+        <v>457</v>
+      </c>
+      <c r="AC40" s="89"/>
     </row>
-    <row r="41" spans="1:25" s="33" customFormat="1" ht="81">
-      <c r="A41" s="44" t="s">
-        <v>368</v>
-      </c>
-      <c r="B41" s="44" t="s">
-        <v>369</v>
-      </c>
-      <c r="C41" s="69" t="s">
-        <v>417</v>
-      </c>
-      <c r="D41" s="70">
+    <row r="41" spans="1:29" s="29" customFormat="1" ht="78.75">
+      <c r="A41" s="65" t="s">
+        <v>399</v>
+      </c>
+      <c r="B41" s="65" t="s">
+        <v>400</v>
+      </c>
+      <c r="C41" s="41" t="s">
+        <v>458</v>
+      </c>
+      <c r="D41" s="42">
         <v>40</v>
       </c>
-      <c r="E41" s="73"/>
-      <c r="F41" s="32" t="s">
-        <v>58</v>
-      </c>
-      <c r="G41" s="32" t="s">
-        <v>417</v>
-      </c>
-      <c r="H41" s="32"/>
-      <c r="I41" s="75" t="s">
-        <v>418</v>
-      </c>
-      <c r="J41" s="71"/>
-      <c r="K41" s="72" t="s">
-        <v>419</v>
-      </c>
-      <c r="L41" s="32" t="s">
-        <v>103</v>
-      </c>
-      <c r="M41" s="32"/>
-      <c r="N41" s="32" t="s">
-        <v>420</v>
-      </c>
-      <c r="O41" s="83" t="s">
-        <v>421</v>
-      </c>
-      <c r="P41" s="32" t="s">
-        <v>418</v>
-      </c>
-      <c r="Q41" s="71" t="s">
-        <v>66</v>
-      </c>
-      <c r="R41" s="41" t="s">
-        <v>107</v>
-      </c>
-      <c r="S41" s="72" t="s">
-        <v>405</v>
-      </c>
-      <c r="T41" s="32"/>
-      <c r="U41" s="32"/>
-      <c r="V41" s="16"/>
-      <c r="W41" s="16"/>
-      <c r="X41" s="16"/>
-      <c r="Y41" s="17"/>
+      <c r="E41" s="77"/>
+      <c r="F41" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="G41" s="26" t="s">
+        <v>458</v>
+      </c>
+      <c r="H41" s="26"/>
+      <c r="I41" s="76" t="s">
+        <v>459</v>
+      </c>
+      <c r="J41" s="27"/>
+      <c r="K41" s="28" t="s">
+        <v>460</v>
+      </c>
+      <c r="L41" s="26" t="s">
+        <v>116</v>
+      </c>
+      <c r="M41" s="26"/>
+      <c r="N41" s="26" t="s">
+        <v>461</v>
+      </c>
+      <c r="O41" s="61" t="s">
+        <v>462</v>
+      </c>
+      <c r="P41" s="26" t="s">
+        <v>459</v>
+      </c>
+      <c r="Q41" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="R41" s="51" t="s">
+        <v>38</v>
+      </c>
+      <c r="S41" s="28" t="s">
+        <v>456</v>
+      </c>
+      <c r="T41" s="26"/>
+      <c r="U41" s="26"/>
+      <c r="V41" s="26"/>
+      <c r="W41" s="26"/>
+      <c r="X41" s="26"/>
+      <c r="Y41" s="66"/>
+      <c r="AA41" s="83"/>
+      <c r="AB41" s="94" t="s">
+        <v>463</v>
+      </c>
+      <c r="AC41" s="88"/>
     </row>
-    <row r="42" spans="1:25" s="33" customFormat="1" ht="81">
-      <c r="A42" s="44" t="s">
-        <v>368</v>
-      </c>
-      <c r="B42" s="44" t="s">
-        <v>387</v>
-      </c>
-      <c r="C42" s="69" t="s">
+    <row r="42" spans="1:29" s="21" customFormat="1" ht="78.75">
+      <c r="A42" s="45" t="s">
+        <v>399</v>
+      </c>
+      <c r="B42" s="45" t="s">
         <v>422</v>
       </c>
-      <c r="D42" s="70">
+      <c r="C42" s="46" t="s">
+        <v>464</v>
+      </c>
+      <c r="D42" s="47">
         <v>41</v>
       </c>
-      <c r="E42" s="73"/>
-      <c r="F42" s="32"/>
-      <c r="G42" s="32" t="s">
-        <v>422</v>
-      </c>
-      <c r="H42" s="32"/>
-      <c r="I42" s="32" t="s">
-        <v>423</v>
-      </c>
-      <c r="J42" s="71"/>
-      <c r="K42" s="72" t="s">
-        <v>424</v>
-      </c>
-      <c r="L42" s="32" t="s">
-        <v>58</v>
-      </c>
-      <c r="M42" s="32"/>
-      <c r="N42" s="32" t="s">
-        <v>425</v>
-      </c>
-      <c r="O42" s="83" t="s">
-        <v>426</v>
-      </c>
-      <c r="P42" s="32" t="s">
-        <v>423</v>
-      </c>
-      <c r="Q42" s="71" t="s">
-        <v>66</v>
-      </c>
-      <c r="R42" s="41" t="s">
-        <v>107</v>
-      </c>
-      <c r="S42" s="72" t="s">
-        <v>427</v>
-      </c>
-      <c r="T42" s="32"/>
-      <c r="U42" s="32"/>
-      <c r="V42" s="16"/>
-      <c r="W42" s="16"/>
-      <c r="X42" s="16"/>
-      <c r="Y42" s="17"/>
+      <c r="E42" s="59"/>
+      <c r="F42" s="20"/>
+      <c r="G42" s="20" t="s">
+        <v>464</v>
+      </c>
+      <c r="H42" s="20"/>
+      <c r="I42" s="20" t="s">
+        <v>465</v>
+      </c>
+      <c r="J42" s="48"/>
+      <c r="K42" s="49" t="s">
+        <v>466</v>
+      </c>
+      <c r="L42" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="M42" s="20"/>
+      <c r="N42" s="20" t="s">
+        <v>467</v>
+      </c>
+      <c r="O42" s="60" t="s">
+        <v>468</v>
+      </c>
+      <c r="P42" s="20" t="s">
+        <v>465</v>
+      </c>
+      <c r="Q42" s="48" t="s">
+        <v>70</v>
+      </c>
+      <c r="R42" s="35" t="s">
+        <v>240</v>
+      </c>
+      <c r="S42" s="49" t="s">
+        <v>469</v>
+      </c>
+      <c r="T42" s="20"/>
+      <c r="U42" s="20"/>
+      <c r="V42" s="20"/>
+      <c r="W42" s="20"/>
+      <c r="X42" s="20"/>
+      <c r="Y42" s="50"/>
+      <c r="AA42" s="85"/>
+      <c r="AB42" s="97" t="s">
+        <v>470</v>
+      </c>
+      <c r="AC42" s="89"/>
     </row>
-    <row r="43" spans="1:25" s="33" customFormat="1" ht="81">
-      <c r="A43" s="44" t="s">
-        <v>368</v>
-      </c>
-      <c r="B43" s="44" t="s">
-        <v>208</v>
-      </c>
-      <c r="C43" s="50" t="s">
-        <v>428</v>
-      </c>
-      <c r="D43" s="51">
+    <row r="43" spans="1:29" s="21" customFormat="1" ht="78.75">
+      <c r="A43" s="40" t="s">
+        <v>399</v>
+      </c>
+      <c r="B43" s="40" t="s">
+        <v>228</v>
+      </c>
+      <c r="C43" s="46" t="s">
+        <v>471</v>
+      </c>
+      <c r="D43" s="47">
         <v>42</v>
       </c>
-      <c r="E43" s="74"/>
+      <c r="E43" s="59"/>
       <c r="F43" s="20" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="G43" s="20" t="s">
-        <v>428</v>
+        <v>471</v>
       </c>
       <c r="H43" s="20"/>
       <c r="I43" s="20"/>
-      <c r="J43" s="52"/>
-      <c r="K43" s="53" t="s">
-        <v>429</v>
+      <c r="J43" s="48"/>
+      <c r="K43" s="49" t="s">
+        <v>472</v>
       </c>
       <c r="L43" s="20" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="M43" s="20"/>
       <c r="N43" s="20" t="s">
-        <v>430</v>
-      </c>
-      <c r="O43" s="76" t="s">
-        <v>431</v>
+        <v>473</v>
+      </c>
+      <c r="O43" s="60" t="s">
+        <v>474</v>
       </c>
       <c r="P43" s="20"/>
-      <c r="Q43" s="52" t="s">
-        <v>66</v>
-      </c>
-      <c r="R43" s="39" t="s">
-        <v>67</v>
-      </c>
-      <c r="S43" s="53" t="s">
-        <v>432</v>
+      <c r="Q43" s="48" t="s">
+        <v>70</v>
+      </c>
+      <c r="R43" s="35" t="s">
+        <v>240</v>
+      </c>
+      <c r="S43" s="49" t="s">
+        <v>475</v>
       </c>
       <c r="T43" s="20" t="s">
-        <v>433</v>
+        <v>476</v>
       </c>
       <c r="U43" s="20"/>
       <c r="V43" s="16"/>
       <c r="W43" s="16"/>
       <c r="X43" s="16"/>
       <c r="Y43" s="17"/>
+      <c r="AA43" s="85"/>
+      <c r="AB43" s="95"/>
+      <c r="AC43" s="89"/>
     </row>
-    <row r="44" spans="1:25" s="21" customFormat="1" ht="60.75">
-      <c r="A44" s="44" t="s">
-        <v>368</v>
-      </c>
-      <c r="B44" s="44" t="s">
-        <v>406</v>
-      </c>
-      <c r="C44" s="69" t="s">
-        <v>434</v>
-      </c>
-      <c r="D44" s="70">
+    <row r="44" spans="1:29" s="29" customFormat="1" ht="60">
+      <c r="A44" s="65" t="s">
+        <v>399</v>
+      </c>
+      <c r="B44" s="65" t="s">
+        <v>443</v>
+      </c>
+      <c r="C44" s="41" t="s">
+        <v>477</v>
+      </c>
+      <c r="D44" s="42">
         <v>43</v>
       </c>
-      <c r="E44" s="73"/>
-      <c r="F44" s="32" t="s">
-        <v>401</v>
-      </c>
-      <c r="G44" s="32" t="s">
-        <v>434</v>
-      </c>
-      <c r="H44" s="32"/>
-      <c r="I44" s="32"/>
-      <c r="J44" s="71"/>
-      <c r="K44" s="72" t="s">
-        <v>435</v>
-      </c>
-      <c r="L44" s="32" t="s">
-        <v>401</v>
-      </c>
-      <c r="M44" s="32"/>
-      <c r="N44" s="32" t="s">
-        <v>436</v>
-      </c>
-      <c r="O44" s="83" t="s">
+      <c r="E44" s="77"/>
+      <c r="F44" s="26" t="s">
         <v>437</v>
       </c>
-      <c r="P44" s="32"/>
-      <c r="Q44" s="71" t="s">
-        <v>66</v>
-      </c>
-      <c r="R44" s="41" t="s">
-        <v>107</v>
-      </c>
-      <c r="S44" s="72" t="s">
-        <v>405</v>
-      </c>
-      <c r="T44" s="32"/>
-      <c r="U44" s="32"/>
-      <c r="V44" s="16"/>
-      <c r="W44" s="16"/>
-      <c r="X44" s="16"/>
-      <c r="Y44" s="17"/>
+      <c r="G44" s="26" t="s">
+        <v>477</v>
+      </c>
+      <c r="H44" s="26"/>
+      <c r="I44" s="26"/>
+      <c r="J44" s="27"/>
+      <c r="K44" s="28" t="s">
+        <v>478</v>
+      </c>
+      <c r="L44" s="26" t="s">
+        <v>437</v>
+      </c>
+      <c r="M44" s="26"/>
+      <c r="N44" s="26" t="s">
+        <v>479</v>
+      </c>
+      <c r="O44" s="61" t="s">
+        <v>480</v>
+      </c>
+      <c r="P44" s="26"/>
+      <c r="Q44" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="R44" s="51" t="s">
+        <v>38</v>
+      </c>
+      <c r="S44" s="28" t="s">
+        <v>456</v>
+      </c>
+      <c r="T44" s="26"/>
+      <c r="U44" s="26"/>
+      <c r="V44" s="26"/>
+      <c r="W44" s="26"/>
+      <c r="X44" s="26"/>
+      <c r="Y44" s="66"/>
+      <c r="AA44" s="83"/>
+      <c r="AB44" s="94" t="s">
+        <v>481</v>
+      </c>
+      <c r="AC44" s="88"/>
     </row>
-    <row r="45" spans="1:25" s="33" customFormat="1" ht="81">
-      <c r="A45" s="44" t="s">
-        <v>368</v>
-      </c>
-      <c r="B45" s="44" t="s">
-        <v>369</v>
-      </c>
-      <c r="C45" s="69" t="s">
-        <v>438</v>
-      </c>
-      <c r="D45" s="70">
+    <row r="45" spans="1:29" s="21" customFormat="1" ht="78.75">
+      <c r="A45" s="45" t="s">
+        <v>399</v>
+      </c>
+      <c r="B45" s="45" t="s">
+        <v>400</v>
+      </c>
+      <c r="C45" s="46" t="s">
+        <v>482</v>
+      </c>
+      <c r="D45" s="47">
         <v>44</v>
       </c>
-      <c r="E45" s="73"/>
-      <c r="F45" s="32" t="s">
-        <v>58</v>
-      </c>
-      <c r="G45" s="32" t="s">
-        <v>438</v>
-      </c>
-      <c r="H45" s="32"/>
-      <c r="I45" s="75" t="s">
-        <v>439</v>
-      </c>
-      <c r="J45" s="71"/>
-      <c r="K45" s="72" t="s">
-        <v>440</v>
-      </c>
-      <c r="L45" s="32" t="s">
-        <v>58</v>
-      </c>
-      <c r="M45" s="32"/>
-      <c r="N45" s="32" t="s">
-        <v>441</v>
-      </c>
-      <c r="O45" s="83" t="s">
-        <v>442</v>
-      </c>
-      <c r="P45" s="32" t="s">
+      <c r="E45" s="59"/>
+      <c r="F45" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="G45" s="20" t="s">
+        <v>482</v>
+      </c>
+      <c r="H45" s="20"/>
+      <c r="I45" s="55" t="s">
+        <v>483</v>
+      </c>
+      <c r="J45" s="48"/>
+      <c r="K45" s="49" t="s">
+        <v>484</v>
+      </c>
+      <c r="L45" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="M45" s="20"/>
+      <c r="N45" s="20" t="s">
+        <v>485</v>
+      </c>
+      <c r="O45" s="60" t="s">
+        <v>486</v>
+      </c>
+      <c r="P45" s="20" t="s">
+        <v>487</v>
+      </c>
+      <c r="Q45" s="48" t="s">
+        <v>70</v>
+      </c>
+      <c r="R45" s="35" t="s">
+        <v>240</v>
+      </c>
+      <c r="S45" s="49" t="s">
+        <v>488</v>
+      </c>
+      <c r="T45" s="20"/>
+      <c r="U45" s="20"/>
+      <c r="V45" s="20"/>
+      <c r="W45" s="20"/>
+      <c r="X45" s="20"/>
+      <c r="Y45" s="50"/>
+      <c r="AA45" s="85"/>
+      <c r="AB45" s="97" t="s">
+        <v>489</v>
+      </c>
+      <c r="AC45" s="89"/>
+    </row>
+    <row r="46" spans="1:29" s="29" customFormat="1" ht="267.75">
+      <c r="A46" s="65" t="s">
+        <v>399</v>
+      </c>
+      <c r="B46" s="65" t="s">
         <v>443</v>
       </c>
-      <c r="Q45" s="71" t="s">
-        <v>66</v>
-      </c>
-      <c r="R45" s="41" t="s">
-        <v>107</v>
-      </c>
-      <c r="S45" s="72" t="s">
-        <v>376</v>
-      </c>
-      <c r="T45" s="32"/>
-      <c r="U45" s="32"/>
-      <c r="V45" s="16"/>
-      <c r="W45" s="16"/>
-      <c r="X45" s="16"/>
-      <c r="Y45" s="17"/>
+      <c r="C46" s="41" t="s">
+        <v>490</v>
+      </c>
+      <c r="D46" s="42">
+        <v>45</v>
+      </c>
+      <c r="E46" s="77"/>
+      <c r="F46" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="G46" s="26" t="s">
+        <v>490</v>
+      </c>
+      <c r="H46" s="26"/>
+      <c r="I46" s="26" t="s">
+        <v>491</v>
+      </c>
+      <c r="J46" s="27"/>
+      <c r="K46" s="28" t="s">
+        <v>492</v>
+      </c>
+      <c r="L46" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="M46" s="26"/>
+      <c r="N46" s="26" t="s">
+        <v>493</v>
+      </c>
+      <c r="O46" s="61" t="s">
+        <v>494</v>
+      </c>
+      <c r="P46" s="26" t="s">
+        <v>491</v>
+      </c>
+      <c r="Q46" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="R46" s="51" t="s">
+        <v>38</v>
+      </c>
+      <c r="S46" s="28" t="s">
+        <v>495</v>
+      </c>
+      <c r="T46" s="26"/>
+      <c r="U46" s="26"/>
+      <c r="V46" s="26"/>
+      <c r="W46" s="26"/>
+      <c r="X46" s="26"/>
+      <c r="Y46" s="66"/>
+      <c r="AA46" s="83"/>
+      <c r="AB46" s="94" t="s">
+        <v>496</v>
+      </c>
+      <c r="AC46" s="88"/>
     </row>
-    <row r="46" spans="1:25" s="33" customFormat="1" ht="259.5">
-      <c r="A46" s="44" t="s">
-        <v>368</v>
-      </c>
-      <c r="B46" s="44" t="s">
-        <v>406</v>
-      </c>
-      <c r="C46" s="69" t="s">
-        <v>444</v>
-      </c>
-      <c r="D46" s="70">
-        <v>45</v>
-      </c>
-      <c r="E46" s="73"/>
-      <c r="F46" s="32" t="s">
-        <v>58</v>
-      </c>
-      <c r="G46" s="32" t="s">
-        <v>444</v>
-      </c>
-      <c r="H46" s="32"/>
-      <c r="I46" s="32" t="s">
-        <v>445</v>
-      </c>
-      <c r="J46" s="71"/>
-      <c r="K46" s="72" t="s">
-        <v>446</v>
-      </c>
-      <c r="L46" s="32" t="s">
-        <v>58</v>
-      </c>
-      <c r="M46" s="32"/>
-      <c r="N46" s="32" t="s">
-        <v>447</v>
-      </c>
-      <c r="O46" s="83" t="s">
-        <v>448</v>
-      </c>
-      <c r="P46" s="32" t="s">
-        <v>445</v>
-      </c>
-      <c r="Q46" s="71" t="s">
-        <v>66</v>
-      </c>
-      <c r="R46" s="41" t="s">
-        <v>107</v>
-      </c>
-      <c r="S46" s="72" t="s">
-        <v>449</v>
-      </c>
-      <c r="T46" s="32"/>
-      <c r="U46" s="32"/>
-      <c r="V46" s="16"/>
-      <c r="W46" s="16"/>
-      <c r="X46" s="16"/>
-      <c r="Y46" s="17"/>
-    </row>
-    <row r="47" spans="1:25" s="33" customFormat="1" ht="81">
-      <c r="A47" s="44" t="s">
-        <v>368</v>
-      </c>
-      <c r="B47" s="44" t="s">
-        <v>406</v>
-      </c>
-      <c r="C47" s="69" t="s">
-        <v>450</v>
-      </c>
-      <c r="D47" s="70">
+    <row r="47" spans="1:29" s="21" customFormat="1" ht="78.75">
+      <c r="A47" s="45" t="s">
+        <v>399</v>
+      </c>
+      <c r="B47" s="45" t="s">
+        <v>443</v>
+      </c>
+      <c r="C47" s="46" t="s">
+        <v>497</v>
+      </c>
+      <c r="D47" s="47">
         <v>46</v>
       </c>
-      <c r="E47" s="32" t="s">
-        <v>451</v>
-      </c>
-      <c r="F47" s="32"/>
-      <c r="G47" s="32"/>
-      <c r="H47" s="32"/>
-      <c r="I47" s="32"/>
-      <c r="J47" s="71"/>
-      <c r="K47" s="72" t="s">
-        <v>452</v>
-      </c>
-      <c r="L47" s="32"/>
-      <c r="M47" s="32"/>
-      <c r="N47" s="32"/>
-      <c r="O47" s="32"/>
-      <c r="P47" s="32"/>
-      <c r="Q47" s="71"/>
-      <c r="R47" s="41" t="s">
-        <v>107</v>
-      </c>
-      <c r="S47" s="72"/>
-      <c r="T47" s="32"/>
-      <c r="U47" s="32"/>
-      <c r="V47" s="16"/>
-      <c r="W47" s="16"/>
-      <c r="X47" s="16"/>
-      <c r="Y47" s="17"/>
+      <c r="E47" s="20" t="s">
+        <v>498</v>
+      </c>
+      <c r="F47" s="20"/>
+      <c r="G47" s="20"/>
+      <c r="H47" s="20"/>
+      <c r="I47" s="20"/>
+      <c r="J47" s="48"/>
+      <c r="K47" s="49" t="s">
+        <v>499</v>
+      </c>
+      <c r="L47" s="20" t="s">
+        <v>500</v>
+      </c>
+      <c r="M47" s="20"/>
+      <c r="N47" s="20" t="s">
+        <v>501</v>
+      </c>
+      <c r="O47" s="20"/>
+      <c r="P47" s="20"/>
+      <c r="Q47" s="48" t="s">
+        <v>70</v>
+      </c>
+      <c r="R47" s="35" t="s">
+        <v>240</v>
+      </c>
+      <c r="S47" s="49" t="s">
+        <v>502</v>
+      </c>
+      <c r="T47" s="20"/>
+      <c r="U47" s="20"/>
+      <c r="V47" s="20"/>
+      <c r="W47" s="20"/>
+      <c r="X47" s="20"/>
+      <c r="Y47" s="50"/>
+      <c r="AA47" s="85"/>
+      <c r="AB47" s="97" t="s">
+        <v>503</v>
+      </c>
+      <c r="AC47" s="89"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:Y47" xr:uid="{1C2168F3-A279-4578-8965-A6D9B95FE417}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:Y47">
-      <sortCondition ref="D2:D47"/>
-    </sortState>
-  </autoFilter>
-  <mergeCells count="3">
-    <mergeCell ref="D1:J1"/>
-    <mergeCell ref="K1:Q1"/>
-    <mergeCell ref="S1:U1"/>
-  </mergeCells>
+  <autoFilter ref="A2:Y47" xr:uid="{1C2168F3-A279-4578-8965-A6D9B95FE417}"/>
   <hyperlinks>
     <hyperlink ref="O5" r:id="rId1" location="attribute_580" xr:uid="{FD3ABAAC-0F7D-468B-B6CD-80EE64EA5F1A}"/>
     <hyperlink ref="O3" r:id="rId2" location="attribute_549" xr:uid="{7845992C-F231-45F5-A797-7393688CAAEF}"/>
@@ -5571,43 +6111,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75">
-      <c r="A1" s="38" t="s">
-        <v>453</v>
-      </c>
-      <c r="B1" s="38" t="s">
-        <v>454</v>
+      <c r="A1" s="34" t="s">
+        <v>504</v>
+      </c>
+      <c r="B1" s="34" t="s">
+        <v>505</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="63.6" customHeight="1">
-      <c r="A2" s="42" t="s">
-        <v>34</v>
-      </c>
-      <c r="B2" s="42" t="s">
-        <v>455</v>
+      <c r="A2" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="38" t="s">
+        <v>506</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="81.599999999999994" customHeight="1">
-      <c r="A3" s="39" t="s">
-        <v>67</v>
-      </c>
-      <c r="B3" s="39" t="s">
-        <v>456</v>
+      <c r="A3" s="35" t="s">
+        <v>240</v>
+      </c>
+      <c r="B3" s="35" t="s">
+        <v>507</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="57.6" customHeight="1">
-      <c r="A4" s="40" t="s">
-        <v>80</v>
-      </c>
-      <c r="B4" s="40" t="s">
-        <v>457</v>
+      <c r="A4" s="36" t="s">
+        <v>88</v>
+      </c>
+      <c r="B4" s="36" t="s">
+        <v>508</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="56.45" customHeight="1">
-      <c r="A5" s="41" t="s">
-        <v>107</v>
-      </c>
-      <c r="B5" s="41" t="s">
-        <v>458</v>
+      <c r="A5" s="37" t="s">
+        <v>509</v>
+      </c>
+      <c r="B5" s="37" t="s">
+        <v>510</v>
       </c>
     </row>
   </sheetData>
@@ -5616,17 +6156,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="a486f84b-88b9-4459-bbe1-3ce207c7425f" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="4d568f87-b25f-475a-a26b-5a1bcde8677b">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -5635,9 +6164,9 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010054AA600EF525E845A794782CB692D6B7" ma:contentTypeVersion="10" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="f3108455c181cfe97f8bcaca529baa4b">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="4d568f87-b25f-475a-a26b-5a1bcde8677b" xmlns:ns3="a486f84b-88b9-4459-bbe1-3ce207c7425f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b0d91f42a17a717c0951ffb4a6166412" ns2:_="" ns3:_="">
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010054AA600EF525E845A794782CB692D6B7" ma:contentTypeVersion="10" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="cc4c4033369d5d6ac50a3e34c1ce5a63">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="4d568f87-b25f-475a-a26b-5a1bcde8677b" xmlns:ns3="a486f84b-88b9-4459-bbe1-3ce207c7425f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="62ede38dca49547a6a5f42d1680060ad" ns2:_="" ns3:_="">
     <xsd:import namespace="4d568f87-b25f-475a-a26b-5a1bcde8677b"/>
     <xsd:import namespace="a486f84b-88b9-4459-bbe1-3ce207c7425f"/>
     <xsd:element name="properties">
@@ -5824,14 +6353,25 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="a486f84b-88b9-4459-bbe1-3ce207c7425f" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="4d568f87-b25f-475a-a26b-5a1bcde8677b">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B0E354AB-4CDA-4EF3-9357-6B04BF45ABA8}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B2C30D69-4DF6-43D2-974B-2ADDD7995612}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B2C30D69-4DF6-43D2-974B-2ADDD7995612}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FA6A1753-2535-4143-AEAE-E72A4E59D5C5}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F954ED61-CE5D-479E-8B85-5757C977FBAB}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B0E354AB-4CDA-4EF3-9357-6B04BF45ABA8}"/>
 </file>